--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_33.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_13_33.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1502325.249880269</v>
+        <v>1499290.275062125</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4941244.251829514</v>
+        <v>4941244.251829515</v>
       </c>
     </row>
     <row r="9">
@@ -737,64 +737,64 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8.056175065232779</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
+      <c r="T3" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="H3" t="n">
+      <c r="U3" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>0</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0</v>
-      </c>
-      <c r="S3" t="n">
-        <v>0</v>
-      </c>
-      <c r="T3" t="n">
-        <v>0</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="E4" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -986,7 +986,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>8.056175065232777</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>9.146429456440488</v>
@@ -995,43 +995,43 @@
         <v>9.146429456440488</v>
       </c>
       <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>0</v>
-      </c>
-      <c r="R6" t="n">
-        <v>0</v>
-      </c>
-      <c r="S6" t="n">
-        <v>0</v>
-      </c>
-      <c r="T6" t="n">
-        <v>0</v>
-      </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>8.056175065232777</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,25 +1101,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
+        <v>8.056175065232777</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="S7" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="T7" t="n">
-        <v>0</v>
-      </c>
-      <c r="U7" t="n">
-        <v>8.056175065232779</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1217,19 +1217,19 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>9.146429456440488</v>
+      </c>
+      <c r="H9" t="n">
         <v>8.056175065232779</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1271,7 +1271,7 @@
         <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1311,49 +1311,49 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>8.056175065232777</v>
+      </c>
+      <c r="T10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
       <c r="U10" t="n">
-        <v>8.056175065232777</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="V10" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="W10" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>110.8725174464009</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>416.8201079258493</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>212.6137601753971</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1.753082628501599</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y11" t="n">
         <v>396.9273063213908</v>
@@ -1533,19 +1533,19 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>36.83564896909246</v>
       </c>
       <c r="E13" t="n">
-        <v>69.30549977531022</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H13" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>171.3654368228146</v>
@@ -1596,7 +1596,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>402.9572413489716</v>
       </c>
       <c r="H14" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>20.57509085115342</v>
@@ -1657,19 +1657,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T14" t="n">
         <v>212.6137601753971</v>
       </c>
       <c r="U14" t="n">
-        <v>97.89852914481413</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>59.03595667172942</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
         <v>169.3824387139007</v>
@@ -1779,13 +1779,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>164.8226104303953</v>
+        <v>78.84306516142753</v>
       </c>
       <c r="H16" t="n">
         <v>141.3962838682001</v>
       </c>
       <c r="I16" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>171.3654368228146</v>
@@ -1824,16 +1824,16 @@
         <v>279.9289690666107</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W16" t="n">
-        <v>5.572353075054018</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1843,10 +1843,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>114.334085525105</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,7 +1855,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F17" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>290.5556061473074</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>212.6137601753971</v>
@@ -1903,13 +1903,13 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>78.94623571174242</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y17" t="n">
         <v>396.9273063213908</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2010,19 +2010,19 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E19" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.8226104303953</v>
+        <v>73.72771412378329</v>
       </c>
       <c r="H19" t="n">
         <v>141.3962838682001</v>
       </c>
       <c r="I19" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -2067,10 +2067,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>87.96069958581707</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2083,13 +2083,13 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
@@ -2098,7 +2098,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2140,16 +2140,16 @@
         <v>254.355186029715</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>181.9217113255701</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>75.94115294476347</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y20" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2244,22 +2244,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>164.8226104303953</v>
       </c>
       <c r="H22" t="n">
-        <v>141.3962838682001</v>
+        <v>36.83564896909247</v>
       </c>
       <c r="I22" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>171.3654368228146</v>
@@ -2295,13 +2295,13 @@
         <v>233.9261601361662</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9289690666107</v>
       </c>
       <c r="V22" t="n">
-        <v>99.67861281156081</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X22" t="n">
         <v>235.9604235189134</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>406.1189678678446</v>
+        <v>66.01501445445655</v>
       </c>
       <c r="C23" t="n">
         <v>406.0233447798626</v>
@@ -2380,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>39.81874444279551</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2481,10 +2481,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
@@ -2496,7 +2496,7 @@
         <v>141.3962838682001</v>
       </c>
       <c r="I25" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>171.3654368228146</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9289690666107</v>
+        <v>100.4737112852863</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
@@ -2544,7 +2544,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>45.93969526083459</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -2566,7 +2566,7 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F26" t="n">
-        <v>416.8201079258493</v>
+        <v>41.22069107790711</v>
       </c>
       <c r="G26" t="n">
         <v>402.9572413489716</v>
@@ -2611,10 +2611,10 @@
         <v>212.6137601753971</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>254.355186029715</v>
       </c>
       <c r="V26" t="n">
-        <v>225.0949482986571</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W26" t="n">
         <v>379.9226978561831</v>
@@ -2718,10 +2718,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
@@ -2733,7 +2733,7 @@
         <v>141.3962838682001</v>
       </c>
       <c r="I28" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,28 +2760,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>171.3654368228146</v>
       </c>
       <c r="T28" t="n">
         <v>233.9261601361662</v>
       </c>
       <c r="U28" t="n">
-        <v>263.3079410140924</v>
+        <v>279.9289690666107</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>144.8487980136048</v>
       </c>
     </row>
     <row r="29">
@@ -2794,7 +2794,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C29" t="n">
-        <v>406.0233447798626</v>
+        <v>30.42392793192028</v>
       </c>
       <c r="D29" t="n">
         <v>400.41929060787</v>
@@ -2854,7 +2854,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W29" t="n">
-        <v>4.323281008241083</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X29" t="n">
         <v>396.636963852737</v>
@@ -2952,25 +2952,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>66.65959961467392</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G31" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>141.349456000754</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I31" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>171.3654368228146</v>
@@ -3015,7 +3015,7 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3037,7 +3037,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
-        <v>410.1968133282722</v>
+        <v>34.59739648033005</v>
       </c>
       <c r="F32" t="n">
         <v>416.8201079258493</v>
@@ -3094,7 +3094,7 @@
         <v>379.9226978561831</v>
       </c>
       <c r="X32" t="n">
-        <v>21.03754700479474</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y32" t="n">
         <v>396.9273063213908</v>
@@ -3186,22 +3186,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E34" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F34" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>14.79496641584724</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H34" t="n">
         <v>141.3962838682001</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>171.3654368228146</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>233.9261601361662</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9289690666107</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W34" t="n">
-        <v>276.2789678462144</v>
+        <v>264.4648842079112</v>
       </c>
       <c r="X34" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3265,13 +3265,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>406.0233447798626</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
@@ -3286,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>12.81814314612646</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
       </c>
       <c r="Y35" t="n">
-        <v>396.9273063213908</v>
+        <v>261.1446169348511</v>
       </c>
     </row>
     <row r="36">
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
@@ -3441,10 +3441,10 @@
         <v>164.8226104303953</v>
       </c>
       <c r="H37" t="n">
-        <v>141.3962838682001</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,25 +3474,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>171.3654368228146</v>
       </c>
       <c r="T37" t="n">
-        <v>226.8426974697662</v>
+        <v>233.9261601361662</v>
       </c>
       <c r="U37" t="n">
         <v>279.9289690666107</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>183.0014647817727</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3511,19 +3511,19 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F38" t="n">
         <v>416.8201079258493</v>
       </c>
       <c r="G38" t="n">
-        <v>49.82652798950699</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H38" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,19 +3556,19 @@
         <v>95.5595853423645</v>
       </c>
       <c r="T38" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>89.70744262488992</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3669,16 +3669,16 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>36.83564896909247</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>171.3654368228146</v>
@@ -3723,7 +3723,7 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>105.190702884238</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3739,28 +3739,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>264.5842660552739</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>410.1968133282722</v>
       </c>
       <c r="F41" t="n">
-        <v>416.8201079258493</v>
+        <v>316.3956520990872</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>20.57509085115342</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,16 +3790,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U41" t="n">
         <v>254.355186029715</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3808,7 +3808,7 @@
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="42">
@@ -3900,7 +3900,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
         <v>157.8996982303191</v>
@@ -3918,7 +3918,7 @@
         <v>141.3962838682001</v>
       </c>
       <c r="I43" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>50.46000275058582</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>171.3654368228146</v>
@@ -3957,16 +3957,16 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>242.6079697823932</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.402505540711</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -3982,19 +3982,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>402.9572413489716</v>
       </c>
       <c r="H44" t="n">
-        <v>240.588409865747</v>
+        <v>34.46151845961469</v>
       </c>
       <c r="I44" t="n">
         <v>20.57509085115342</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T44" t="n">
         <v>212.6137601753971</v>
@@ -4036,16 +4036,16 @@
         <v>254.355186029715</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4137,16 +4137,16 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C46" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>157.8996982303191</v>
+        <v>86.71505727435583</v>
       </c>
       <c r="E46" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>141.3962838682001</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4194,10 +4194,10 @@
         <v>279.9289690666107</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
-        <v>77.04160839559211</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X46" t="n">
         <v>235.9604235189134</v>
@@ -4330,28 +4330,28 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J2" t="n">
+        <v>0.7317143565152391</v>
+      </c>
+      <c r="K2" t="n">
         <v>9.786679518391322</v>
       </c>
-      <c r="K2" t="n">
-        <v>18.47578750200979</v>
-      </c>
       <c r="L2" t="n">
+        <v>18.84164468026741</v>
+      </c>
+      <c r="M2" t="n">
+        <v>18.84164468026741</v>
+      </c>
+      <c r="N2" t="n">
+        <v>18.84164468026741</v>
+      </c>
+      <c r="O2" t="n">
+        <v>18.84164468026741</v>
+      </c>
+      <c r="P2" t="n">
+        <v>18.84164468026741</v>
+      </c>
+      <c r="Q2" t="n">
         <v>27.53075266388587</v>
-      </c>
-      <c r="M2" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="N2" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="O2" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="P2" t="n">
-        <v>27.53075266388587</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>36.58571782576195</v>
       </c>
       <c r="R2" t="n">
         <v>36.58571782576195</v>
@@ -4385,22 +4385,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>36.58571782576195</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="C3" t="n">
-        <v>36.58571782576195</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="D3" t="n">
-        <v>28.44816725481975</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="E3" t="n">
-        <v>19.20934962205158</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="F3" t="n">
-        <v>19.20934962205158</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="G3" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="H3" t="n">
         <v>0.7317143565152391</v>
@@ -4412,22 +4412,22 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="K3" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="L3" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="M3" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="N3" t="n">
-        <v>9.786679518391322</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="O3" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="P3" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="Q3" t="n">
         <v>27.53075266388587</v>
@@ -4436,25 +4436,25 @@
         <v>36.58571782576195</v>
       </c>
       <c r="S3" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="T3" t="n">
-        <v>36.58571782576195</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="U3" t="n">
-        <v>36.58571782576195</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="V3" t="n">
-        <v>36.58571782576195</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="W3" t="n">
-        <v>36.58571782576195</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="X3" t="n">
-        <v>36.58571782576195</v>
+        <v>8.86926492745744</v>
       </c>
       <c r="Y3" t="n">
-        <v>36.58571782576195</v>
+        <v>8.86926492745744</v>
       </c>
     </row>
     <row r="4">
@@ -4464,16 +4464,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>28.44816725481975</v>
+      </c>
+      <c r="C4" t="n">
+        <v>28.44816725481975</v>
+      </c>
+      <c r="D4" t="n">
+        <v>19.20934962205158</v>
+      </c>
+      <c r="E4" t="n">
         <v>9.97053198928341</v>
-      </c>
-      <c r="C4" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="D4" t="n">
-        <v>9.97053198928341</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.7317143565152391</v>
       </c>
       <c r="F4" t="n">
         <v>0.7317143565152391</v>
@@ -4488,25 +4488,25 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J4" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K4" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="L4" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="M4" t="n">
-        <v>9.786679518391322</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N4" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="O4" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="P4" t="n">
-        <v>27.89660984214349</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="Q4" t="n">
         <v>36.58571782576195</v>
@@ -4521,19 +4521,19 @@
         <v>36.58571782576195</v>
       </c>
       <c r="U4" t="n">
-        <v>27.34690019299378</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="V4" t="n">
-        <v>19.20934962205158</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="W4" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="X4" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Y4" t="n">
-        <v>9.97053198928341</v>
+        <v>36.58571782576195</v>
       </c>
     </row>
     <row r="5">
@@ -4549,16 +4549,16 @@
         <v>24.32075555535073</v>
       </c>
       <c r="D5" t="n">
-        <v>23.89722968881533</v>
+        <v>23.89722968881534</v>
       </c>
       <c r="E5" t="n">
-        <v>14.65841205604716</v>
+        <v>14.65841205604717</v>
       </c>
       <c r="F5" t="n">
-        <v>5.419594423278988</v>
+        <v>5.419594423278994</v>
       </c>
       <c r="G5" t="n">
-        <v>0.7317143565152391</v>
+        <v>0.7317143565152451</v>
       </c>
       <c r="H5" t="n">
         <v>0.7317143565152391</v>
@@ -4567,28 +4567,28 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J5" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K5" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L5" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="M5" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="N5" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="O5" t="n">
-        <v>9.420822340133704</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="P5" t="n">
-        <v>18.47578750200979</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="Q5" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="R5" t="n">
         <v>36.58571782576195</v>
@@ -4622,49 +4622,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="C6" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="D6" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="E6" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="F6" t="n">
-        <v>28.44816725481975</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="G6" t="n">
-        <v>19.20934962205158</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="H6" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="I6" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K6" t="n">
-        <v>0.7317143565152391</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L6" t="n">
-        <v>9.786679518391322</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="M6" t="n">
-        <v>18.47578750200979</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="N6" t="n">
-        <v>18.47578750200979</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="O6" t="n">
-        <v>18.47578750200979</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="P6" t="n">
-        <v>27.53075266388587</v>
+        <v>36.58571782576195</v>
       </c>
       <c r="Q6" t="n">
         <v>36.58571782576195</v>
@@ -4676,22 +4676,22 @@
         <v>36.58571782576195</v>
       </c>
       <c r="T6" t="n">
-        <v>36.58571782576195</v>
+        <v>27.34690019299378</v>
       </c>
       <c r="U6" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="V6" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="W6" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="X6" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="Y6" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
     </row>
     <row r="7">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="E7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="F7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="H7" t="n">
         <v>0.7317143565152391</v>
@@ -4725,52 +4725,52 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J7" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K7" t="n">
-        <v>9.420822340133704</v>
+        <v>18.84164468026741</v>
       </c>
       <c r="L7" t="n">
-        <v>9.420822340133704</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="M7" t="n">
-        <v>9.420822340133704</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="N7" t="n">
-        <v>18.47578750200979</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="O7" t="n">
-        <v>18.47578750200979</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="P7" t="n">
-        <v>27.53075266388587</v>
+        <v>27.89660984214349</v>
       </c>
       <c r="Q7" t="n">
         <v>36.58571782576195</v>
       </c>
       <c r="R7" t="n">
-        <v>27.34690019299378</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="S7" t="n">
-        <v>18.10808256022561</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="T7" t="n">
-        <v>18.10808256022561</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="U7" t="n">
-        <v>9.97053198928341</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="V7" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="W7" t="n">
-        <v>9.97053198928341</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="X7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.7317143565152391</v>
+        <v>19.20934962205158</v>
       </c>
     </row>
     <row r="8">
@@ -4804,10 +4804,10 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J8" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="K8" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.786679518391322</v>
       </c>
       <c r="L8" t="n">
         <v>9.786679518391322</v>
@@ -4816,13 +4816,13 @@
         <v>18.84164468026741</v>
       </c>
       <c r="N8" t="n">
+        <v>18.84164468026741</v>
+      </c>
+      <c r="O8" t="n">
+        <v>18.84164468026741</v>
+      </c>
+      <c r="P8" t="n">
         <v>27.53075266388587</v>
-      </c>
-      <c r="O8" t="n">
-        <v>36.58571782576195</v>
-      </c>
-      <c r="P8" t="n">
-        <v>36.58571782576195</v>
       </c>
       <c r="Q8" t="n">
         <v>36.58571782576195</v>
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>18.10808256022561</v>
+      </c>
+      <c r="C9" t="n">
+        <v>18.10808256022561</v>
+      </c>
+      <c r="D9" t="n">
+        <v>18.10808256022561</v>
+      </c>
+      <c r="E9" t="n">
+        <v>18.10808256022561</v>
+      </c>
+      <c r="F9" t="n">
+        <v>18.10808256022561</v>
+      </c>
+      <c r="G9" t="n">
         <v>8.86926492745744</v>
-      </c>
-      <c r="C9" t="n">
-        <v>8.86926492745744</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.7317143565152391</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.7317143565152391</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.7317143565152391</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.7317143565152391</v>
       </c>
       <c r="H9" t="n">
         <v>0.7317143565152391</v>
@@ -4883,19 +4883,19 @@
         <v>0.7317143565152391</v>
       </c>
       <c r="J9" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="K9" t="n">
-        <v>9.786679518391322</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="L9" t="n">
-        <v>9.786679518391322</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="M9" t="n">
-        <v>9.786679518391322</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N9" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="O9" t="n">
         <v>27.53075266388587</v>
@@ -4904,7 +4904,7 @@
         <v>27.53075266388587</v>
       </c>
       <c r="Q9" t="n">
-        <v>36.58571782576195</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="R9" t="n">
         <v>36.58571782576195</v>
@@ -4919,16 +4919,16 @@
         <v>18.10808256022561</v>
       </c>
       <c r="V9" t="n">
-        <v>8.86926492745744</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="W9" t="n">
-        <v>8.86926492745744</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="X9" t="n">
-        <v>8.86926492745744</v>
+        <v>18.10808256022561</v>
       </c>
       <c r="Y9" t="n">
-        <v>8.86926492745744</v>
+        <v>18.10808256022561</v>
       </c>
     </row>
     <row r="10">
@@ -4938,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="C10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="D10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="E10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="F10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="G10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="H10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="I10" t="n">
         <v>0.7317143565152391</v>
       </c>
       <c r="J10" t="n">
-        <v>0.7317143565152391</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="K10" t="n">
-        <v>9.786679518391322</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="L10" t="n">
-        <v>18.84164468026741</v>
+        <v>9.420822340133704</v>
       </c>
       <c r="M10" t="n">
-        <v>18.84164468026741</v>
+        <v>18.47578750200979</v>
       </c>
       <c r="N10" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="O10" t="n">
-        <v>18.84164468026741</v>
+        <v>27.53075266388587</v>
       </c>
       <c r="P10" t="n">
         <v>27.53075266388587</v>
@@ -4989,25 +4989,25 @@
         <v>36.58571782576195</v>
       </c>
       <c r="S10" t="n">
-        <v>36.58571782576195</v>
+        <v>28.44816725481975</v>
       </c>
       <c r="T10" t="n">
-        <v>36.58571782576195</v>
+        <v>19.20934962205158</v>
       </c>
       <c r="U10" t="n">
-        <v>28.44816725481975</v>
+        <v>9.97053198928341</v>
       </c>
       <c r="V10" t="n">
-        <v>19.20934962205158</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="W10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="X10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
       <c r="Y10" t="n">
-        <v>9.97053198928341</v>
+        <v>0.7317143565152391</v>
       </c>
     </row>
     <row r="11">
@@ -5017,13 +5017,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1603.011682427239</v>
+        <v>1188.671466944136</v>
       </c>
       <c r="C11" t="n">
-        <v>1603.011682427239</v>
+        <v>1188.671466944136</v>
       </c>
       <c r="D11" t="n">
-        <v>1603.011682427239</v>
+        <v>1188.671466944136</v>
       </c>
       <c r="E11" t="n">
         <v>1188.671466944136</v>
@@ -5050,43 +5050,43 @@
         <v>734.319570257344</v>
       </c>
       <c r="M11" t="n">
-        <v>1281.957757837099</v>
+        <v>934.6592215071869</v>
       </c>
       <c r="N11" t="n">
-        <v>1487.407706486248</v>
+        <v>1140.109170156336</v>
       </c>
       <c r="O11" t="n">
-        <v>2060.866531503903</v>
+        <v>1523.57639127731</v>
       </c>
       <c r="P11" t="n">
-        <v>2207.85917483041</v>
+        <v>1670.569034603817</v>
       </c>
       <c r="Q11" t="n">
-        <v>2298.734565938129</v>
+        <v>2171.738898861988</v>
       </c>
       <c r="R11" t="n">
         <v>2317.005353606687</v>
       </c>
       <c r="S11" t="n">
-        <v>2220.480519927531</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="T11" t="n">
-        <v>2005.719146012989</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="U11" t="n">
-        <v>2005.719146012989</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="V11" t="n">
-        <v>2005.719146012989</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="W11" t="n">
-        <v>2003.948355479149</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="X11" t="n">
-        <v>2003.948355479149</v>
+        <v>1701.600581861097</v>
       </c>
       <c r="Y11" t="n">
-        <v>1603.011682427239</v>
+        <v>1300.663908809187</v>
       </c>
     </row>
     <row r="12">
@@ -5120,25 +5120,25 @@
         <v>46.34010707213374</v>
       </c>
       <c r="J12" t="n">
-        <v>79.74785731762651</v>
+        <v>323.4162612922597</v>
       </c>
       <c r="K12" t="n">
-        <v>653.2066823352816</v>
+        <v>896.8750863099148</v>
       </c>
       <c r="L12" t="n">
-        <v>791.3051537708591</v>
+        <v>1034.973557745492</v>
       </c>
       <c r="M12" t="n">
-        <v>1364.763978788514</v>
+        <v>1203.967491836491</v>
       </c>
       <c r="N12" t="n">
-        <v>1712.40861486768</v>
+        <v>1383.26969369661</v>
       </c>
       <c r="O12" t="n">
-        <v>1867.436082985752</v>
+        <v>1538.297161814683</v>
       </c>
       <c r="P12" t="n">
-        <v>1984.029401784995</v>
+        <v>1654.890480613925</v>
       </c>
       <c r="Q12" t="n">
         <v>2041.751673158611</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>594.8946898882202</v>
+        <v>421.1286910250514</v>
       </c>
       <c r="C13" t="n">
-        <v>423.8013174499367</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="D13" t="n">
-        <v>423.8013174499367</v>
+        <v>212.8275923553613</v>
       </c>
       <c r="E13" t="n">
-        <v>353.7957621213405</v>
+        <v>212.8275923553613</v>
       </c>
       <c r="F13" t="n">
-        <v>189.1646362319318</v>
+        <v>212.8275923553613</v>
       </c>
       <c r="G13" t="n">
-        <v>189.1646362319318</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="H13" t="n">
         <v>46.34010707213374</v>
@@ -5223,28 +5223,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R13" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S13" t="n">
-        <v>2092.939253027495</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T13" t="n">
-        <v>1856.650202384903</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U13" t="n">
-        <v>1573.893667974185</v>
+        <v>1624.863367722251</v>
       </c>
       <c r="V13" t="n">
-        <v>1300.007922913707</v>
+        <v>1350.977622661773</v>
       </c>
       <c r="W13" t="n">
-        <v>1020.938258422581</v>
+        <v>1071.907958170648</v>
       </c>
       <c r="X13" t="n">
-        <v>782.5943962822646</v>
+        <v>833.564096030331</v>
       </c>
       <c r="Y13" t="n">
-        <v>782.5943962822646</v>
+        <v>608.8283974190957</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1593.135396851075</v>
+        <v>895.180955684229</v>
       </c>
       <c r="C14" t="n">
-        <v>1593.135396851075</v>
+        <v>895.180955684229</v>
       </c>
       <c r="D14" t="n">
-        <v>1188.671466944136</v>
+        <v>895.180955684229</v>
       </c>
       <c r="E14" t="n">
-        <v>1188.671466944136</v>
+        <v>895.180955684229</v>
       </c>
       <c r="F14" t="n">
-        <v>767.6410548978231</v>
+        <v>474.1505436379166</v>
       </c>
       <c r="G14" t="n">
-        <v>360.6135383837104</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="H14" t="n">
         <v>67.12302712380387</v>
@@ -5281,49 +5281,49 @@
         <v>442.0035266232771</v>
       </c>
       <c r="K14" t="n">
-        <v>929.9459757986768</v>
+        <v>565.7972706491446</v>
       </c>
       <c r="L14" t="n">
-        <v>1098.468275406876</v>
+        <v>734.319570257344</v>
       </c>
       <c r="M14" t="n">
-        <v>1298.807926656719</v>
+        <v>934.6592215071869</v>
       </c>
       <c r="N14" t="n">
-        <v>1872.266751674374</v>
+        <v>1140.109170156336</v>
       </c>
       <c r="O14" t="n">
-        <v>2060.866531503903</v>
+        <v>1328.708949985866</v>
       </c>
       <c r="P14" t="n">
-        <v>2207.85917483041</v>
+        <v>1670.569034603817</v>
       </c>
       <c r="Q14" t="n">
-        <v>2298.734565938129</v>
+        <v>2171.738898861988</v>
       </c>
       <c r="R14" t="n">
         <v>2317.005353606687</v>
       </c>
       <c r="S14" t="n">
-        <v>2317.005353606687</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="T14" t="n">
-        <v>2102.243979692144</v>
+        <v>2005.719146012989</v>
       </c>
       <c r="U14" t="n">
-        <v>2003.356576515564</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="V14" t="n">
-        <v>2003.356576515564</v>
+        <v>1689.16243621355</v>
       </c>
       <c r="W14" t="n">
-        <v>2003.356576515564</v>
+        <v>1305.402135348719</v>
       </c>
       <c r="X14" t="n">
-        <v>2003.356576515564</v>
+        <v>1305.402135348719</v>
       </c>
       <c r="Y14" t="n">
-        <v>2003.356576515564</v>
+        <v>1305.402135348719</v>
       </c>
     </row>
     <row r="15">
@@ -5354,28 +5354,28 @@
         <v>46.34010707213374</v>
       </c>
       <c r="I15" t="n">
-        <v>46.34010707213374</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J15" t="n">
-        <v>323.4162612922597</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K15" t="n">
-        <v>412.1681315835714</v>
+        <v>422.5397803207446</v>
       </c>
       <c r="L15" t="n">
-        <v>550.2666030191489</v>
+        <v>560.6382517563221</v>
       </c>
       <c r="M15" t="n">
-        <v>719.2605371101474</v>
+        <v>729.6321858473207</v>
       </c>
       <c r="N15" t="n">
-        <v>898.5627389702673</v>
+        <v>908.9343877074406</v>
       </c>
       <c r="O15" t="n">
-        <v>1053.59020708834</v>
+        <v>1063.961855825513</v>
       </c>
       <c r="P15" t="n">
-        <v>1627.049032105995</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q15" t="n">
         <v>1956.817230278806</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1105.185467752882</v>
+        <v>924.9340541274123</v>
       </c>
       <c r="C16" t="n">
-        <v>934.0920953145981</v>
+        <v>753.8406816891288</v>
       </c>
       <c r="D16" t="n">
-        <v>774.597450637508</v>
+        <v>594.3460370120388</v>
       </c>
       <c r="E16" t="n">
-        <v>613.6866355058274</v>
+        <v>433.4352218803583</v>
       </c>
       <c r="F16" t="n">
-        <v>449.0555096164187</v>
+        <v>268.8040959909495</v>
       </c>
       <c r="G16" t="n">
-        <v>282.5680243331911</v>
+        <v>189.1646362319318</v>
       </c>
       <c r="H16" t="n">
-        <v>139.7434951733931</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I16" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J16" t="n">
-        <v>113.2867408723823</v>
+        <v>113.286740872382</v>
       </c>
       <c r="K16" t="n">
-        <v>354.7109984607104</v>
+        <v>354.7109984607101</v>
       </c>
       <c r="L16" t="n">
-        <v>725.7742600107269</v>
+        <v>725.7742600107267</v>
       </c>
       <c r="M16" t="n">
         <v>1132.247446864443</v>
@@ -5460,28 +5460,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R16" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S16" t="n">
-        <v>2092.939253027495</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T16" t="n">
-        <v>1856.650202384903</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U16" t="n">
-        <v>1573.893667974185</v>
+        <v>1624.863367722251</v>
       </c>
       <c r="V16" t="n">
-        <v>1573.893667974185</v>
+        <v>1350.977622661773</v>
       </c>
       <c r="W16" t="n">
-        <v>1568.265028504433</v>
+        <v>1350.977622661773</v>
       </c>
       <c r="X16" t="n">
-        <v>1329.921166364117</v>
+        <v>1112.633760521457</v>
       </c>
       <c r="Y16" t="n">
-        <v>1105.185467752882</v>
+        <v>1112.633760521457</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1175.201245861456</v>
+        <v>890.4427291446975</v>
       </c>
       <c r="C17" t="n">
-        <v>1175.201245861456</v>
+        <v>774.9537538668137</v>
       </c>
       <c r="D17" t="n">
-        <v>1175.201245861456</v>
+        <v>774.9537538668137</v>
       </c>
       <c r="E17" t="n">
-        <v>760.8610303783527</v>
+        <v>360.6135383837104</v>
       </c>
       <c r="F17" t="n">
-        <v>339.8306183320402</v>
+        <v>360.6135383837104</v>
       </c>
       <c r="G17" t="n">
-        <v>339.8306183320402</v>
+        <v>360.6135383837104</v>
       </c>
       <c r="H17" t="n">
-        <v>46.34010707213374</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="I17" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J17" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K17" t="n">
-        <v>508.159281569601</v>
+        <v>1015.462351640932</v>
       </c>
       <c r="L17" t="n">
-        <v>1081.618106587256</v>
+        <v>1183.984651249132</v>
       </c>
       <c r="M17" t="n">
-        <v>1281.957757837099</v>
+        <v>1384.324302498975</v>
       </c>
       <c r="N17" t="n">
-        <v>1487.407706486248</v>
+        <v>1745.271084598233</v>
       </c>
       <c r="O17" t="n">
-        <v>2060.866531503903</v>
+        <v>1933.870864427762</v>
       </c>
       <c r="P17" t="n">
-        <v>2207.85917483041</v>
+        <v>2080.863507754269</v>
       </c>
       <c r="Q17" t="n">
-        <v>2298.734565938129</v>
+        <v>2171.738898861988</v>
       </c>
       <c r="R17" t="n">
         <v>2317.005353606687</v>
       </c>
       <c r="S17" t="n">
-        <v>2220.480519927531</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="T17" t="n">
-        <v>2005.719146012989</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="U17" t="n">
-        <v>2005.719146012989</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="V17" t="n">
-        <v>1655.881591349469</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="W17" t="n">
-        <v>1576.137918913366</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="X17" t="n">
-        <v>1576.137918913366</v>
+        <v>1701.600581861097</v>
       </c>
       <c r="Y17" t="n">
-        <v>1175.201245861456</v>
+        <v>1300.663908809187</v>
       </c>
     </row>
     <row r="18">
@@ -5591,31 +5591,31 @@
         <v>46.34010707213374</v>
       </c>
       <c r="I18" t="n">
-        <v>46.34010707213374</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J18" t="n">
-        <v>323.4162612922597</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K18" t="n">
-        <v>821.5491165543276</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L18" t="n">
-        <v>959.6475879899051</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M18" t="n">
-        <v>1533.10641300756</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N18" t="n">
-        <v>1712.40861486768</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O18" t="n">
-        <v>1867.436082985752</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P18" t="n">
-        <v>1984.029401784995</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q18" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R18" t="n">
         <v>2041.751673158611</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1105.185467752882</v>
+        <v>594.2250918561773</v>
       </c>
       <c r="C19" t="n">
-        <v>934.0920953145981</v>
+        <v>423.1317194178938</v>
       </c>
       <c r="D19" t="n">
-        <v>774.597450637508</v>
+        <v>263.6370747408038</v>
       </c>
       <c r="E19" t="n">
-        <v>613.6866355058274</v>
+        <v>263.6370747408038</v>
       </c>
       <c r="F19" t="n">
-        <v>449.0555096164187</v>
+        <v>263.6370747408038</v>
       </c>
       <c r="G19" t="n">
-        <v>282.5680243331911</v>
+        <v>189.1646362319318</v>
       </c>
       <c r="H19" t="n">
-        <v>139.7434951733931</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I19" t="n">
         <v>46.34010707213374</v>
@@ -5697,28 +5697,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R19" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S19" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="T19" t="n">
-        <v>2029.746603216028</v>
+        <v>2080.716302964095</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.990068805311</v>
+        <v>1797.959768553377</v>
       </c>
       <c r="V19" t="n">
-        <v>1473.104323744833</v>
+        <v>1524.074023492899</v>
       </c>
       <c r="W19" t="n">
-        <v>1194.034659253707</v>
+        <v>1245.004359001774</v>
       </c>
       <c r="X19" t="n">
-        <v>1194.034659253707</v>
+        <v>1006.660496861457</v>
       </c>
       <c r="Y19" t="n">
-        <v>1105.185467752882</v>
+        <v>781.9247982502217</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>860.9286276658031</v>
+        <v>754.1708338151435</v>
       </c>
       <c r="C20" t="n">
-        <v>450.8040369790732</v>
+        <v>754.1708338151435</v>
       </c>
       <c r="D20" t="n">
-        <v>46.34010707213374</v>
+        <v>754.1708338151435</v>
       </c>
       <c r="E20" t="n">
-        <v>46.34010707213374</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="F20" t="n">
-        <v>46.34010707213374</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="G20" t="n">
-        <v>46.34010707213374</v>
+        <v>339.8306183320402</v>
       </c>
       <c r="H20" t="n">
         <v>46.34010707213374</v>
@@ -5761,10 +5761,10 @@
         <v>734.319570257344</v>
       </c>
       <c r="M20" t="n">
-        <v>1129.526662798631</v>
+        <v>934.6592215071869</v>
       </c>
       <c r="N20" t="n">
-        <v>1334.97661144778</v>
+        <v>1140.109170156336</v>
       </c>
       <c r="O20" t="n">
         <v>1523.57639127731</v>
@@ -5788,16 +5788,16 @@
         <v>1748.794715679943</v>
       </c>
       <c r="V20" t="n">
-        <v>1748.794715679943</v>
+        <v>1565.035411310681</v>
       </c>
       <c r="W20" t="n">
-        <v>1748.794715679943</v>
+        <v>1565.035411310681</v>
       </c>
       <c r="X20" t="n">
-        <v>1672.086480382202</v>
+        <v>1164.392013479633</v>
       </c>
       <c r="Y20" t="n">
-        <v>1271.149807330293</v>
+        <v>1164.392013479633</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>46.34010707213374</v>
       </c>
       <c r="I21" t="n">
-        <v>46.34010707213374</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J21" t="n">
-        <v>323.4162612922597</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K21" t="n">
-        <v>896.8750863099148</v>
+        <v>735.1094075974056</v>
       </c>
       <c r="L21" t="n">
-        <v>1364.112478916562</v>
+        <v>873.2078790329831</v>
       </c>
       <c r="M21" t="n">
-        <v>1533.10641300756</v>
+        <v>1042.201813123982</v>
       </c>
       <c r="N21" t="n">
-        <v>1712.40861486768</v>
+        <v>1221.504014984101</v>
       </c>
       <c r="O21" t="n">
-        <v>1867.436082985752</v>
+        <v>1376.531483102174</v>
       </c>
       <c r="P21" t="n">
-        <v>1984.029401784995</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q21" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R21" t="n">
         <v>2041.751673158611</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1105.185467752882</v>
+        <v>421.1286910250514</v>
       </c>
       <c r="C22" t="n">
-        <v>934.0920953145981</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="D22" t="n">
-        <v>774.597450637508</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="E22" t="n">
-        <v>613.6866355058274</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="F22" t="n">
-        <v>449.0555096164187</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="G22" t="n">
-        <v>282.5680243331911</v>
+        <v>83.54783330354027</v>
       </c>
       <c r="H22" t="n">
-        <v>139.7434951733931</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I22" t="n">
         <v>46.34010707213374</v>
@@ -5934,28 +5934,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R22" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S22" t="n">
-        <v>2092.939253027495</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T22" t="n">
-        <v>1856.650202384903</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U22" t="n">
-        <v>1856.650202384903</v>
+        <v>1624.863367722251</v>
       </c>
       <c r="V22" t="n">
-        <v>1755.964734898478</v>
+        <v>1350.977622661773</v>
       </c>
       <c r="W22" t="n">
-        <v>1755.964734898478</v>
+        <v>1071.907958170648</v>
       </c>
       <c r="X22" t="n">
-        <v>1517.620872758161</v>
+        <v>833.564096030331</v>
       </c>
       <c r="Y22" t="n">
-        <v>1292.885174146926</v>
+        <v>608.8283974190957</v>
       </c>
     </row>
     <row r="23">
@@ -5995,22 +5995,22 @@
         <v>1238.541904606803</v>
       </c>
       <c r="L23" t="n">
-        <v>1407.064204215003</v>
+        <v>1430.052623247841</v>
       </c>
       <c r="M23" t="n">
-        <v>1607.403855464845</v>
+        <v>2499.068187701913</v>
       </c>
       <c r="N23" t="n">
-        <v>2421.219330276751</v>
+        <v>2704.518136351062</v>
       </c>
       <c r="O23" t="n">
-        <v>3345.707844392911</v>
+        <v>3629.006650467222</v>
       </c>
       <c r="P23" t="n">
-        <v>4114.570055286645</v>
+        <v>4397.868861360956</v>
       </c>
       <c r="Q23" t="n">
-        <v>4615.739919544816</v>
+        <v>4488.744252468675</v>
       </c>
       <c r="R23" t="n">
         <v>4634.010707213374</v>
@@ -6028,13 +6028,13 @@
         <v>3715.96251462311</v>
       </c>
       <c r="W23" t="n">
-        <v>3675.741560640488</v>
+        <v>3332.202213758279</v>
       </c>
       <c r="X23" t="n">
-        <v>3275.098162809441</v>
+        <v>2931.558815927231</v>
       </c>
       <c r="Y23" t="n">
-        <v>2874.161489757531</v>
+        <v>2530.622142875321</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>92.68021414426748</v>
       </c>
       <c r="J24" t="n">
-        <v>369.7563683643935</v>
+        <v>266.5583060359645</v>
       </c>
       <c r="K24" t="n">
-        <v>458.5082386557052</v>
+        <v>866.3839575493441</v>
       </c>
       <c r="L24" t="n">
-        <v>596.6067100912827</v>
+        <v>1004.482428984922</v>
       </c>
       <c r="M24" t="n">
-        <v>765.6006441822813</v>
+        <v>1173.47636307592</v>
       </c>
       <c r="N24" t="n">
-        <v>1758.748721939814</v>
+        <v>1352.77856493604</v>
       </c>
       <c r="O24" t="n">
-        <v>1913.776190057886</v>
+        <v>1507.806033054112</v>
       </c>
       <c r="P24" t="n">
-        <v>2030.369508857128</v>
+        <v>1624.399351853355</v>
       </c>
       <c r="Q24" t="n">
         <v>2088.091780230744</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>831.1201150162447</v>
+        <v>1058.122186723756</v>
       </c>
       <c r="C25" t="n">
-        <v>660.0267425779612</v>
+        <v>887.0288142854724</v>
       </c>
       <c r="D25" t="n">
-        <v>660.0267425779612</v>
+        <v>727.5341696083824</v>
       </c>
       <c r="E25" t="n">
-        <v>660.0267425779612</v>
+        <v>566.6233544767018</v>
       </c>
       <c r="F25" t="n">
-        <v>495.3956166885524</v>
+        <v>401.9922285872931</v>
       </c>
       <c r="G25" t="n">
-        <v>328.9081314053249</v>
+        <v>235.5047433040655</v>
       </c>
       <c r="H25" t="n">
-        <v>186.0836022455268</v>
+        <v>92.68021414426748</v>
       </c>
       <c r="I25" t="n">
         <v>92.68021414426748</v>
@@ -6171,28 +6171,28 @@
         <v>2363.345460678821</v>
       </c>
       <c r="R25" t="n">
-        <v>2312.375760930754</v>
+        <v>2363.345460678821</v>
       </c>
       <c r="S25" t="n">
-        <v>2139.279360099629</v>
+        <v>2363.345460678821</v>
       </c>
       <c r="T25" t="n">
-        <v>2139.279360099629</v>
+        <v>2363.345460678821</v>
       </c>
       <c r="U25" t="n">
-        <v>1856.522825688911</v>
+        <v>2261.856863420956</v>
       </c>
       <c r="V25" t="n">
-        <v>1582.637080628433</v>
+        <v>1987.971118360478</v>
       </c>
       <c r="W25" t="n">
-        <v>1303.567416137307</v>
+        <v>1708.901453869352</v>
       </c>
       <c r="X25" t="n">
-        <v>1065.223553996991</v>
+        <v>1470.557591729036</v>
       </c>
       <c r="Y25" t="n">
-        <v>1018.819821410289</v>
+        <v>1245.8218931178</v>
       </c>
     </row>
     <row r="26">
@@ -6202,16 +6202,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2463.208595736527</v>
+        <v>2083.81524538507</v>
       </c>
       <c r="C26" t="n">
-        <v>2053.084005049797</v>
+        <v>1673.69065469834</v>
       </c>
       <c r="D26" t="n">
-        <v>1648.620075142857</v>
+        <v>1269.226724791401</v>
       </c>
       <c r="E26" t="n">
-        <v>1234.279859659754</v>
+        <v>854.8865093082973</v>
       </c>
       <c r="F26" t="n">
         <v>813.2494476134416</v>
@@ -6226,28 +6226,28 @@
         <v>91.94849978775224</v>
       </c>
       <c r="J26" t="n">
-        <v>487.6119193388956</v>
+        <v>160.8360924511665</v>
       </c>
       <c r="K26" t="n">
-        <v>1237.810190250288</v>
+        <v>911.0343633625585</v>
       </c>
       <c r="L26" t="n">
-        <v>2213.454433752941</v>
+        <v>1079.556662970758</v>
       </c>
       <c r="M26" t="n">
-        <v>2975.076587242336</v>
+        <v>2148.57222742483</v>
       </c>
       <c r="N26" t="n">
-        <v>4025.690720379157</v>
+        <v>3199.186360561651</v>
       </c>
       <c r="O26" t="n">
-        <v>4214.290500208686</v>
+        <v>3387.78614039118</v>
       </c>
       <c r="P26" t="n">
-        <v>4361.283143535194</v>
+        <v>4156.648351284914</v>
       </c>
       <c r="Q26" t="n">
-        <v>4452.158534642913</v>
+        <v>4579.154201719054</v>
       </c>
       <c r="R26" t="n">
         <v>4597.424989387612</v>
@@ -6259,19 +6259,19 @@
         <v>4286.138781793913</v>
       </c>
       <c r="U26" t="n">
-        <v>4286.138781793913</v>
+        <v>4029.214351460867</v>
       </c>
       <c r="V26" t="n">
-        <v>4058.770147148805</v>
+        <v>3679.376796797348</v>
       </c>
       <c r="W26" t="n">
-        <v>3675.009846283973</v>
+        <v>3295.616495932517</v>
       </c>
       <c r="X26" t="n">
-        <v>3274.366448452926</v>
+        <v>2894.973098101469</v>
       </c>
       <c r="Y26" t="n">
-        <v>2873.429775401016</v>
+        <v>2494.036425049559</v>
       </c>
     </row>
     <row r="27">
@@ -6308,25 +6308,25 @@
         <v>135.7278987704182</v>
       </c>
       <c r="K27" t="n">
-        <v>224.4797690617299</v>
+        <v>735.5535502837979</v>
       </c>
       <c r="L27" t="n">
-        <v>1079.219790989336</v>
+        <v>918.8162717486016</v>
       </c>
       <c r="M27" t="n">
-        <v>1248.213725080335</v>
+        <v>1087.8102058396</v>
       </c>
       <c r="N27" t="n">
-        <v>1427.515926940454</v>
+        <v>1267.11240769972</v>
       </c>
       <c r="O27" t="n">
-        <v>1913.044475701371</v>
+        <v>1422.139875817792</v>
       </c>
       <c r="P27" t="n">
-        <v>2029.637794500613</v>
+        <v>1538.733194617035</v>
       </c>
       <c r="Q27" t="n">
-        <v>2087.360065874229</v>
+        <v>2002.425622994424</v>
       </c>
       <c r="R27" t="n">
         <v>2087.360065874229</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>3065.199643725036</v>
+        <v>1057.390472367241</v>
       </c>
       <c r="C28" t="n">
-        <v>2894.106271286753</v>
+        <v>886.2970999289571</v>
       </c>
       <c r="D28" t="n">
-        <v>2894.106271286753</v>
+        <v>726.8024552518671</v>
       </c>
       <c r="E28" t="n">
-        <v>2894.106271286753</v>
+        <v>565.8916401201866</v>
       </c>
       <c r="F28" t="n">
-        <v>2729.475145397344</v>
+        <v>401.2605142307779</v>
       </c>
       <c r="G28" t="n">
-        <v>2562.987660114116</v>
+        <v>234.7730289475503</v>
       </c>
       <c r="H28" t="n">
-        <v>2420.163130954318</v>
+        <v>91.94849978775224</v>
       </c>
       <c r="I28" t="n">
-        <v>2326.759742853059</v>
+        <v>91.94849978775224</v>
       </c>
       <c r="J28" t="n">
-        <v>2393.706376653307</v>
+        <v>158.8951335880005</v>
       </c>
       <c r="K28" t="n">
-        <v>2635.130634241636</v>
+        <v>400.3193911763286</v>
       </c>
       <c r="L28" t="n">
-        <v>3006.193895791652</v>
+        <v>771.3826527263452</v>
       </c>
       <c r="M28" t="n">
-        <v>3412.667082645369</v>
+        <v>1177.855839580062</v>
       </c>
       <c r="N28" t="n">
-        <v>3807.928024306903</v>
+        <v>1573.116781241597</v>
       </c>
       <c r="O28" t="n">
-        <v>4173.176018479854</v>
+        <v>1938.364775414547</v>
       </c>
       <c r="P28" t="n">
-        <v>4469.285273669878</v>
+        <v>2234.474030604571</v>
       </c>
       <c r="Q28" t="n">
-        <v>4597.424989387612</v>
+        <v>2362.613746322306</v>
       </c>
       <c r="R28" t="n">
-        <v>4546.455289639545</v>
+        <v>2362.613746322306</v>
       </c>
       <c r="S28" t="n">
-        <v>4546.455289639545</v>
+        <v>2189.51734549118</v>
       </c>
       <c r="T28" t="n">
-        <v>4310.166238996953</v>
+        <v>1953.228294848588</v>
       </c>
       <c r="U28" t="n">
-        <v>4044.198621811001</v>
+        <v>1670.47176043787</v>
       </c>
       <c r="V28" t="n">
-        <v>3770.312876750523</v>
+        <v>1670.47176043787</v>
       </c>
       <c r="W28" t="n">
-        <v>3491.243212259397</v>
+        <v>1391.402095946744</v>
       </c>
       <c r="X28" t="n">
-        <v>3252.899350119081</v>
+        <v>1391.402095946744</v>
       </c>
       <c r="Y28" t="n">
-        <v>3252.899350119081</v>
+        <v>1245.090178761285</v>
       </c>
     </row>
     <row r="29">
@@ -6439,7 +6439,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2463.208595736527</v>
+        <v>2083.81524538507</v>
       </c>
       <c r="C29" t="n">
         <v>2053.084005049797</v>
@@ -6466,22 +6466,22 @@
         <v>487.6119193388956</v>
       </c>
       <c r="K29" t="n">
-        <v>1039.692229486652</v>
+        <v>1237.810190250288</v>
       </c>
       <c r="L29" t="n">
-        <v>2015.336472989306</v>
+        <v>2213.454433752941</v>
       </c>
       <c r="M29" t="n">
-        <v>3084.352037443377</v>
+        <v>2674.057564292925</v>
       </c>
       <c r="N29" t="n">
-        <v>3289.801986092527</v>
+        <v>2879.507512942075</v>
       </c>
       <c r="O29" t="n">
-        <v>4214.290500208686</v>
+        <v>3803.996027058234</v>
       </c>
       <c r="P29" t="n">
-        <v>4361.283143535194</v>
+        <v>3950.988670384741</v>
       </c>
       <c r="Q29" t="n">
         <v>4452.158534642913</v>
@@ -6502,13 +6502,13 @@
         <v>3679.376796797348</v>
       </c>
       <c r="W29" t="n">
-        <v>3675.009846283973</v>
+        <v>3295.616495932517</v>
       </c>
       <c r="X29" t="n">
-        <v>3274.366448452926</v>
+        <v>2894.973098101469</v>
       </c>
       <c r="Y29" t="n">
-        <v>2873.429775401016</v>
+        <v>2494.036425049559</v>
       </c>
     </row>
     <row r="30">
@@ -6542,28 +6542,28 @@
         <v>102.3201485249255</v>
       </c>
       <c r="J30" t="n">
-        <v>135.7278987704182</v>
+        <v>180.8921487996445</v>
       </c>
       <c r="K30" t="n">
-        <v>224.4797690617299</v>
+        <v>780.7178003130241</v>
       </c>
       <c r="L30" t="n">
-        <v>362.5782404973074</v>
+        <v>918.8162717486016</v>
       </c>
       <c r="M30" t="n">
-        <v>963.2918745818728</v>
+        <v>1087.8102058396</v>
       </c>
       <c r="N30" t="n">
-        <v>1142.594076441993</v>
+        <v>1267.11240769972</v>
       </c>
       <c r="O30" t="n">
-        <v>1297.621544560065</v>
+        <v>1422.139875817792</v>
       </c>
       <c r="P30" t="n">
-        <v>2029.637794500613</v>
+        <v>1538.733194617035</v>
       </c>
       <c r="Q30" t="n">
-        <v>2087.360065874229</v>
+        <v>2002.425622994424</v>
       </c>
       <c r="R30" t="n">
         <v>2087.360065874229</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2888.922489198226</v>
+        <v>466.7370837406701</v>
       </c>
       <c r="C31" t="n">
-        <v>2888.922489198226</v>
+        <v>399.404154836959</v>
       </c>
       <c r="D31" t="n">
-        <v>2729.427844521136</v>
+        <v>399.404154836959</v>
       </c>
       <c r="E31" t="n">
-        <v>2729.427844521136</v>
+        <v>399.404154836959</v>
       </c>
       <c r="F31" t="n">
-        <v>2729.427844521136</v>
+        <v>234.7730289475503</v>
       </c>
       <c r="G31" t="n">
-        <v>2562.940359237908</v>
+        <v>234.7730289475503</v>
       </c>
       <c r="H31" t="n">
-        <v>2420.163130954318</v>
+        <v>91.94849978775224</v>
       </c>
       <c r="I31" t="n">
-        <v>2326.759742853059</v>
+        <v>91.94849978775224</v>
       </c>
       <c r="J31" t="n">
-        <v>2393.706376653307</v>
+        <v>158.8951335880005</v>
       </c>
       <c r="K31" t="n">
-        <v>2635.130634241636</v>
+        <v>400.3193911763286</v>
       </c>
       <c r="L31" t="n">
-        <v>3006.193895791652</v>
+        <v>771.3826527263452</v>
       </c>
       <c r="M31" t="n">
-        <v>3412.667082645369</v>
+        <v>1177.855839580062</v>
       </c>
       <c r="N31" t="n">
-        <v>3807.928024306903</v>
+        <v>1573.116781241597</v>
       </c>
       <c r="O31" t="n">
-        <v>4173.176018479854</v>
+        <v>1938.364775414547</v>
       </c>
       <c r="P31" t="n">
-        <v>4469.285273669878</v>
+        <v>2234.474030604571</v>
       </c>
       <c r="Q31" t="n">
-        <v>4597.424989387612</v>
+        <v>2362.613746322306</v>
       </c>
       <c r="R31" t="n">
-        <v>4546.455289639545</v>
+        <v>2362.613746322306</v>
       </c>
       <c r="S31" t="n">
-        <v>4373.35888880842</v>
+        <v>2189.51734549118</v>
       </c>
       <c r="T31" t="n">
-        <v>4137.069838165828</v>
+        <v>1953.228294848588</v>
       </c>
       <c r="U31" t="n">
-        <v>3854.31330375511</v>
+        <v>1670.47176043787</v>
       </c>
       <c r="V31" t="n">
-        <v>3580.427558694631</v>
+        <v>1396.586015377392</v>
       </c>
       <c r="W31" t="n">
-        <v>3301.357894203506</v>
+        <v>1117.516350886266</v>
       </c>
       <c r="X31" t="n">
-        <v>3301.357894203506</v>
+        <v>879.1724887459497</v>
       </c>
       <c r="Y31" t="n">
-        <v>3076.62219559227</v>
+        <v>654.4367901347144</v>
       </c>
     </row>
     <row r="32">
@@ -6676,13 +6676,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2463.208595736527</v>
+        <v>2083.81524538507</v>
       </c>
       <c r="C32" t="n">
-        <v>2053.084005049797</v>
+        <v>1673.69065469834</v>
       </c>
       <c r="D32" t="n">
-        <v>1648.620075142857</v>
+        <v>1269.226724791401</v>
       </c>
       <c r="E32" t="n">
         <v>1234.279859659754</v>
@@ -6700,28 +6700,28 @@
         <v>91.94849978775224</v>
       </c>
       <c r="J32" t="n">
-        <v>487.6119193388956</v>
+        <v>160.8360924511665</v>
       </c>
       <c r="K32" t="n">
-        <v>611.4056633647631</v>
+        <v>911.0343633625585</v>
       </c>
       <c r="L32" t="n">
-        <v>1495.766549637812</v>
+        <v>1886.678606865212</v>
       </c>
       <c r="M32" t="n">
-        <v>2564.782114091884</v>
+        <v>2955.694171319284</v>
       </c>
       <c r="N32" t="n">
-        <v>3615.396247228705</v>
+        <v>3161.144119968434</v>
       </c>
       <c r="O32" t="n">
-        <v>3803.996027058234</v>
+        <v>4085.632634084593</v>
       </c>
       <c r="P32" t="n">
-        <v>3950.988670384741</v>
+        <v>4488.278810611335</v>
       </c>
       <c r="Q32" t="n">
-        <v>4452.158534642913</v>
+        <v>4579.154201719054</v>
       </c>
       <c r="R32" t="n">
         <v>4597.424989387612</v>
@@ -6742,10 +6742,10 @@
         <v>3295.616495932517</v>
       </c>
       <c r="X32" t="n">
-        <v>3274.366448452926</v>
+        <v>2894.973098101469</v>
       </c>
       <c r="Y32" t="n">
-        <v>2873.429775401016</v>
+        <v>2494.036425049559</v>
       </c>
     </row>
     <row r="33">
@@ -6776,31 +6776,31 @@
         <v>91.94849978775224</v>
       </c>
       <c r="I33" t="n">
-        <v>91.94849978775224</v>
+        <v>102.3201485249255</v>
       </c>
       <c r="J33" t="n">
-        <v>125.356250033245</v>
+        <v>379.3963027450515</v>
       </c>
       <c r="K33" t="n">
-        <v>214.1081203245567</v>
+        <v>468.1481730363631</v>
       </c>
       <c r="L33" t="n">
-        <v>648.5898168762858</v>
+        <v>606.2466444719406</v>
       </c>
       <c r="M33" t="n">
-        <v>817.5837509672842</v>
+        <v>775.2405785629392</v>
       </c>
       <c r="N33" t="n">
-        <v>996.8859528274041</v>
+        <v>954.5427804230591</v>
       </c>
       <c r="O33" t="n">
-        <v>1913.044475701371</v>
+        <v>1109.570248541132</v>
       </c>
       <c r="P33" t="n">
-        <v>2029.637794500613</v>
+        <v>1538.733194617035</v>
       </c>
       <c r="Q33" t="n">
-        <v>2087.360065874229</v>
+        <v>2002.425622994424</v>
       </c>
       <c r="R33" t="n">
         <v>2087.360065874229</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>839.7561410292402</v>
+        <v>986.1627345790912</v>
       </c>
       <c r="C34" t="n">
-        <v>668.6627685909567</v>
+        <v>815.0693621408077</v>
       </c>
       <c r="D34" t="n">
-        <v>668.6627685909567</v>
+        <v>655.5747174637177</v>
       </c>
       <c r="E34" t="n">
-        <v>507.7519534592762</v>
+        <v>494.6639023320372</v>
       </c>
       <c r="F34" t="n">
-        <v>343.1208275698675</v>
+        <v>494.6639023320372</v>
       </c>
       <c r="G34" t="n">
         <v>328.1764170488096</v>
@@ -6882,28 +6882,28 @@
         <v>2362.613746322306</v>
       </c>
       <c r="R34" t="n">
-        <v>2311.644046574239</v>
+        <v>2362.613746322306</v>
       </c>
       <c r="S34" t="n">
-        <v>2138.547645743114</v>
+        <v>2189.51734549118</v>
       </c>
       <c r="T34" t="n">
-        <v>2138.547645743114</v>
+        <v>1953.228294848588</v>
       </c>
       <c r="U34" t="n">
-        <v>1855.791111332396</v>
+        <v>1953.228294848588</v>
       </c>
       <c r="V34" t="n">
-        <v>1581.905366271918</v>
+        <v>1679.34254978811</v>
       </c>
       <c r="W34" t="n">
-        <v>1302.835701780792</v>
+        <v>1412.206303113452</v>
       </c>
       <c r="X34" t="n">
-        <v>1064.491839640476</v>
+        <v>1173.862440973136</v>
       </c>
       <c r="Y34" t="n">
-        <v>839.7561410292402</v>
+        <v>1173.862440973136</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>877.4951098051761</v>
+        <v>1302.741959763786</v>
       </c>
       <c r="C35" t="n">
-        <v>467.3705191184462</v>
+        <v>892.6173690770559</v>
       </c>
       <c r="D35" t="n">
-        <v>467.3705191184462</v>
+        <v>488.1534391701163</v>
       </c>
       <c r="E35" t="n">
-        <v>467.3705191184462</v>
+        <v>488.1534391701163</v>
       </c>
       <c r="F35" t="n">
-        <v>46.34010707213374</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="G35" t="n">
-        <v>46.34010707213374</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="H35" t="n">
-        <v>46.34010707213374</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="I35" t="n">
         <v>46.34010707213374</v>
@@ -6940,25 +6940,25 @@
         <v>442.0035266232771</v>
       </c>
       <c r="K35" t="n">
-        <v>565.7972706491446</v>
+        <v>760.6647119405884</v>
       </c>
       <c r="L35" t="n">
-        <v>734.319570257344</v>
+        <v>929.1870115487878</v>
       </c>
       <c r="M35" t="n">
-        <v>934.6592215071869</v>
+        <v>1129.526662798631</v>
       </c>
       <c r="N35" t="n">
-        <v>1140.109170156336</v>
+        <v>1334.97661144778</v>
       </c>
       <c r="O35" t="n">
-        <v>1713.567995173991</v>
+        <v>1523.57639127731</v>
       </c>
       <c r="P35" t="n">
-        <v>1860.560638500498</v>
+        <v>1670.569034603817</v>
       </c>
       <c r="Q35" t="n">
-        <v>2298.734565938129</v>
+        <v>2171.738898861988</v>
       </c>
       <c r="R35" t="n">
         <v>2317.005353606687</v>
@@ -6967,22 +6967,22 @@
         <v>2317.005353606687</v>
       </c>
       <c r="T35" t="n">
-        <v>2102.243979692144</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="U35" t="n">
-        <v>2102.243979692144</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="V35" t="n">
-        <v>2102.243979692144</v>
+        <v>1967.167798943168</v>
       </c>
       <c r="W35" t="n">
-        <v>2089.296360352623</v>
+        <v>1967.167798943168</v>
       </c>
       <c r="X35" t="n">
-        <v>1688.652962521575</v>
+        <v>1566.52440111212</v>
       </c>
       <c r="Y35" t="n">
-        <v>1287.716289469666</v>
+        <v>1302.741959763786</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>969.9774509400312</v>
+        <v>694.7237704919548</v>
       </c>
       <c r="C36" t="n">
-        <v>835.9823796889768</v>
+        <v>560.7286992409005</v>
       </c>
       <c r="D36" t="n">
-        <v>719.0852219083692</v>
+        <v>443.8315414602929</v>
       </c>
       <c r="E36" t="n">
-        <v>598.5924059006973</v>
+        <v>323.3387254526209</v>
       </c>
       <c r="F36" t="n">
-        <v>489.6325260832018</v>
+        <v>214.3788456351255</v>
       </c>
       <c r="G36" t="n">
-        <v>383.5524042847114</v>
+        <v>108.2987238366352</v>
       </c>
       <c r="H36" t="n">
-        <v>321.59378752021</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I36" t="n">
-        <v>321.59378752021</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J36" t="n">
-        <v>598.6699417403361</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K36" t="n">
-        <v>687.4218120316477</v>
+        <v>769.1485012625715</v>
       </c>
       <c r="L36" t="n">
-        <v>825.5202834672252</v>
+        <v>907.246972698149</v>
       </c>
       <c r="M36" t="n">
-        <v>1317.455493572058</v>
+        <v>1076.240906789147</v>
       </c>
       <c r="N36" t="n">
-        <v>1496.757695432178</v>
+        <v>1255.543108649267</v>
       </c>
       <c r="O36" t="n">
-        <v>1651.78516355025</v>
+        <v>1410.57057676734</v>
       </c>
       <c r="P36" t="n">
-        <v>1768.378482349492</v>
+        <v>1984.029401784995</v>
       </c>
       <c r="Q36" t="n">
-        <v>2232.070910726882</v>
+        <v>2041.751673158611</v>
       </c>
       <c r="R36" t="n">
-        <v>2317.005353606687</v>
+        <v>2041.751673158611</v>
       </c>
       <c r="S36" t="n">
-        <v>2225.918025331386</v>
+        <v>1950.66434488331</v>
       </c>
       <c r="T36" t="n">
-        <v>2070.24406338379</v>
+        <v>1794.990382935713</v>
       </c>
       <c r="U36" t="n">
-        <v>1872.953120343533</v>
+        <v>1597.699439895456</v>
       </c>
       <c r="V36" t="n">
-        <v>1659.241593336566</v>
+        <v>1383.98791288849</v>
       </c>
       <c r="W36" t="n">
-        <v>1446.008425072895</v>
+        <v>1170.754744624819</v>
       </c>
       <c r="X36" t="n">
-        <v>1269.682443211788</v>
+        <v>994.4287627637115</v>
       </c>
       <c r="Y36" t="n">
-        <v>1110.280483575618</v>
+        <v>835.0268031275415</v>
       </c>
     </row>
     <row r="37">
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1105.185467752882</v>
+        <v>697.8641780535406</v>
       </c>
       <c r="C37" t="n">
-        <v>934.0920953145981</v>
+        <v>697.8641780535406</v>
       </c>
       <c r="D37" t="n">
-        <v>774.597450637508</v>
+        <v>538.3695333764506</v>
       </c>
       <c r="E37" t="n">
-        <v>613.6866355058274</v>
+        <v>377.4587182447701</v>
       </c>
       <c r="F37" t="n">
-        <v>449.0555096164187</v>
+        <v>212.8275923553613</v>
       </c>
       <c r="G37" t="n">
-        <v>282.5680243331911</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="H37" t="n">
-        <v>139.7434951733931</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I37" t="n">
         <v>46.34010707213374</v>
@@ -7122,25 +7122,25 @@
         <v>2317.005353606687</v>
       </c>
       <c r="S37" t="n">
-        <v>2317.005353606687</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T37" t="n">
-        <v>2087.871315758438</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U37" t="n">
-        <v>1805.114781347721</v>
+        <v>1624.863367722251</v>
       </c>
       <c r="V37" t="n">
-        <v>1531.229036287242</v>
+        <v>1440.013403296218</v>
       </c>
       <c r="W37" t="n">
-        <v>1531.229036287242</v>
+        <v>1160.943738805093</v>
       </c>
       <c r="X37" t="n">
-        <v>1292.885174146926</v>
+        <v>922.5998766647759</v>
       </c>
       <c r="Y37" t="n">
-        <v>1292.885174146926</v>
+        <v>697.8641780535406</v>
       </c>
     </row>
     <row r="38">
@@ -7150,52 +7150,52 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1221.31544731711</v>
+        <v>1719.645761854062</v>
       </c>
       <c r="C38" t="n">
-        <v>811.1908566303799</v>
+        <v>1309.521171167332</v>
       </c>
       <c r="D38" t="n">
-        <v>811.1908566303799</v>
+        <v>1309.521171167332</v>
       </c>
       <c r="E38" t="n">
-        <v>811.1908566303799</v>
+        <v>895.180955684229</v>
       </c>
       <c r="F38" t="n">
-        <v>390.1604445840675</v>
+        <v>474.1505436379166</v>
       </c>
       <c r="G38" t="n">
-        <v>339.8306183320402</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="H38" t="n">
-        <v>46.34010707213374</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="I38" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J38" t="n">
-        <v>442.0035266232771</v>
+        <v>115.227699735548</v>
       </c>
       <c r="K38" t="n">
-        <v>766.0226596815853</v>
+        <v>239.0214437614155</v>
       </c>
       <c r="L38" t="n">
-        <v>1339.48148469924</v>
+        <v>708.4989328194438</v>
       </c>
       <c r="M38" t="n">
-        <v>1539.821135949083</v>
+        <v>1281.957757837099</v>
       </c>
       <c r="N38" t="n">
-        <v>1745.271084598233</v>
+        <v>1487.407706486248</v>
       </c>
       <c r="O38" t="n">
-        <v>1933.870864427762</v>
+        <v>2060.866531503903</v>
       </c>
       <c r="P38" t="n">
-        <v>2080.863507754269</v>
+        <v>2207.85917483041</v>
       </c>
       <c r="Q38" t="n">
-        <v>2171.738898861988</v>
+        <v>2298.734565938129</v>
       </c>
       <c r="R38" t="n">
         <v>2317.005353606687</v>
@@ -7204,22 +7204,22 @@
         <v>2220.480519927531</v>
       </c>
       <c r="T38" t="n">
-        <v>2005.719146012989</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="U38" t="n">
-        <v>2005.719146012989</v>
+        <v>2129.866941518551</v>
       </c>
       <c r="V38" t="n">
-        <v>2005.719146012989</v>
+        <v>2129.866941518551</v>
       </c>
       <c r="W38" t="n">
-        <v>1621.958845148157</v>
+        <v>2129.866941518551</v>
       </c>
       <c r="X38" t="n">
-        <v>1221.31544731711</v>
+        <v>2129.866941518551</v>
       </c>
       <c r="Y38" t="n">
-        <v>1221.31544731711</v>
+        <v>2129.866941518551</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>46.34010707213374</v>
       </c>
       <c r="I39" t="n">
-        <v>46.34010707213374</v>
+        <v>56.71175580930699</v>
       </c>
       <c r="J39" t="n">
-        <v>79.74785731762651</v>
+        <v>333.787910029433</v>
       </c>
       <c r="K39" t="n">
-        <v>168.4997276089382</v>
+        <v>907.246735047088</v>
       </c>
       <c r="L39" t="n">
-        <v>502.7820817714924</v>
+        <v>1045.345206482666</v>
       </c>
       <c r="M39" t="n">
-        <v>1076.240906789147</v>
+        <v>1214.339140573664</v>
       </c>
       <c r="N39" t="n">
-        <v>1255.543108649267</v>
+        <v>1393.641342433784</v>
       </c>
       <c r="O39" t="n">
-        <v>1410.57057676734</v>
+        <v>1548.668810551856</v>
       </c>
       <c r="P39" t="n">
-        <v>1984.029401784995</v>
+        <v>1665.262129351099</v>
       </c>
       <c r="Q39" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R39" t="n">
         <v>2041.751673158611</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>542.9754205315065</v>
+        <v>421.1286910250514</v>
       </c>
       <c r="C40" t="n">
-        <v>371.882048093223</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="D40" t="n">
-        <v>371.882048093223</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="E40" t="n">
-        <v>210.9712329615425</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="F40" t="n">
-        <v>46.34010707213374</v>
+        <v>250.0353185867679</v>
       </c>
       <c r="G40" t="n">
-        <v>46.34010707213374</v>
+        <v>83.54783330354027</v>
       </c>
       <c r="H40" t="n">
         <v>46.34010707213374</v>
@@ -7335,10 +7335,10 @@
         <v>113.286740872382</v>
       </c>
       <c r="K40" t="n">
-        <v>354.7109984607101</v>
+        <v>354.71099846071</v>
       </c>
       <c r="L40" t="n">
-        <v>725.7742600107267</v>
+        <v>725.7742600107266</v>
       </c>
       <c r="M40" t="n">
         <v>1132.247446864443</v>
@@ -7356,28 +7356,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R40" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S40" t="n">
-        <v>2092.939253027495</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T40" t="n">
-        <v>1856.650202384903</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U40" t="n">
-        <v>1573.893667974185</v>
+        <v>1624.863367722251</v>
       </c>
       <c r="V40" t="n">
-        <v>1300.007922913707</v>
+        <v>1350.977622661773</v>
       </c>
       <c r="W40" t="n">
-        <v>1193.754687677103</v>
+        <v>1071.907958170648</v>
       </c>
       <c r="X40" t="n">
-        <v>955.4108255367862</v>
+        <v>833.564096030331</v>
       </c>
       <c r="Y40" t="n">
-        <v>730.6751269255509</v>
+        <v>608.8283974190957</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1696.299255195219</v>
+        <v>1094.545321643669</v>
       </c>
       <c r="C41" t="n">
-        <v>1286.174664508489</v>
+        <v>1094.545321643669</v>
       </c>
       <c r="D41" t="n">
-        <v>881.7107346015495</v>
+        <v>1094.545321643669</v>
       </c>
       <c r="E41" t="n">
-        <v>467.3705191184462</v>
+        <v>680.2051061605662</v>
       </c>
       <c r="F41" t="n">
-        <v>46.34010707213374</v>
+        <v>360.6135383837104</v>
       </c>
       <c r="G41" t="n">
-        <v>46.34010707213374</v>
+        <v>360.6135383837104</v>
       </c>
       <c r="H41" t="n">
-        <v>46.34010707213374</v>
+        <v>67.12302712380387</v>
       </c>
       <c r="I41" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J41" t="n">
-        <v>115.227699735548</v>
+        <v>442.0035266232771</v>
       </c>
       <c r="K41" t="n">
-        <v>239.0214437614155</v>
+        <v>760.6647119405884</v>
       </c>
       <c r="L41" t="n">
-        <v>407.543743369615</v>
+        <v>929.1870115487878</v>
       </c>
       <c r="M41" t="n">
-        <v>607.8833946194578</v>
+        <v>1129.526662798631</v>
       </c>
       <c r="N41" t="n">
-        <v>813.3333432686073</v>
+        <v>1334.97661144778</v>
       </c>
       <c r="O41" t="n">
-        <v>1386.792168286262</v>
+        <v>1523.57639127731</v>
       </c>
       <c r="P41" t="n">
         <v>1670.569034603817</v>
@@ -7438,25 +7438,25 @@
         <v>2317.005353606687</v>
       </c>
       <c r="S41" t="n">
-        <v>2220.480519927531</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="T41" t="n">
-        <v>2220.480519927531</v>
+        <v>2102.243979692144</v>
       </c>
       <c r="U41" t="n">
-        <v>1963.556089594485</v>
+        <v>1845.319549359099</v>
       </c>
       <c r="V41" t="n">
-        <v>1963.556089594485</v>
+        <v>1495.481994695579</v>
       </c>
       <c r="W41" t="n">
-        <v>1963.556089594485</v>
+        <v>1495.481994695579</v>
       </c>
       <c r="X41" t="n">
-        <v>1963.556089594485</v>
+        <v>1495.481994695579</v>
       </c>
       <c r="Y41" t="n">
-        <v>1963.556089594485</v>
+        <v>1094.545321643669</v>
       </c>
     </row>
     <row r="42">
@@ -7490,28 +7490,28 @@
         <v>46.34010707213374</v>
       </c>
       <c r="J42" t="n">
-        <v>258.3985593057939</v>
+        <v>79.74785731762651</v>
       </c>
       <c r="K42" t="n">
-        <v>831.857384323449</v>
+        <v>653.2066823352816</v>
       </c>
       <c r="L42" t="n">
-        <v>969.9558557590265</v>
+        <v>791.3051537708591</v>
       </c>
       <c r="M42" t="n">
-        <v>1138.949789850025</v>
+        <v>960.2990878618575</v>
       </c>
       <c r="N42" t="n">
-        <v>1712.40861486768</v>
+        <v>1139.601289721977</v>
       </c>
       <c r="O42" t="n">
-        <v>1867.436082985752</v>
+        <v>1294.62875784005</v>
       </c>
       <c r="P42" t="n">
-        <v>1984.029401784995</v>
+        <v>1493.124801901416</v>
       </c>
       <c r="Q42" t="n">
-        <v>2041.751673158611</v>
+        <v>1956.817230278806</v>
       </c>
       <c r="R42" t="n">
         <v>2041.751673158611</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>934.0920953145981</v>
+        <v>1011.782079651622</v>
       </c>
       <c r="C43" t="n">
-        <v>934.0920953145981</v>
+        <v>840.6887072133386</v>
       </c>
       <c r="D43" t="n">
-        <v>774.597450637508</v>
+        <v>681.1940625362486</v>
       </c>
       <c r="E43" t="n">
-        <v>613.6866355058274</v>
+        <v>520.2832474045681</v>
       </c>
       <c r="F43" t="n">
-        <v>449.0555096164187</v>
+        <v>355.6521215151594</v>
       </c>
       <c r="G43" t="n">
-        <v>282.5680243331911</v>
+        <v>189.1646362319318</v>
       </c>
       <c r="H43" t="n">
-        <v>139.7434951733931</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="I43" t="n">
         <v>46.34010707213374</v>
@@ -7593,28 +7593,28 @@
         <v>2317.005353606687</v>
       </c>
       <c r="R43" t="n">
-        <v>2266.035653858621</v>
+        <v>2317.005353606687</v>
       </c>
       <c r="S43" t="n">
-        <v>2092.939253027495</v>
+        <v>2143.908952775561</v>
       </c>
       <c r="T43" t="n">
-        <v>1856.650202384903</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="U43" t="n">
-        <v>1856.650202384903</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="V43" t="n">
-        <v>1582.764457324425</v>
+        <v>1907.619902132969</v>
       </c>
       <c r="W43" t="n">
-        <v>1582.764457324425</v>
+        <v>1662.561346797218</v>
       </c>
       <c r="X43" t="n">
-        <v>1344.420595184108</v>
+        <v>1424.217484656902</v>
       </c>
       <c r="Y43" t="n">
-        <v>1121.791801708642</v>
+        <v>1199.481786045666</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.1416229477908</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="C44" t="n">
-        <v>310.1416229477908</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="D44" t="n">
-        <v>310.1416229477908</v>
+        <v>1344.330785773004</v>
       </c>
       <c r="E44" t="n">
-        <v>310.1416229477908</v>
+        <v>929.9905702899005</v>
       </c>
       <c r="F44" t="n">
-        <v>310.1416229477908</v>
+        <v>508.960158243588</v>
       </c>
       <c r="G44" t="n">
-        <v>310.1416229477908</v>
+        <v>101.9326417294753</v>
       </c>
       <c r="H44" t="n">
         <v>67.12302712380387</v>
@@ -7651,16 +7651,16 @@
         <v>442.0035266232771</v>
       </c>
       <c r="K44" t="n">
-        <v>565.7972706491446</v>
+        <v>786.1001399029151</v>
       </c>
       <c r="L44" t="n">
-        <v>734.319570257344</v>
+        <v>954.6224395111145</v>
       </c>
       <c r="M44" t="n">
-        <v>1171.812259580578</v>
+        <v>1154.962090760957</v>
       </c>
       <c r="N44" t="n">
-        <v>1745.271084598233</v>
+        <v>1360.412039410107</v>
       </c>
       <c r="O44" t="n">
         <v>1933.870864427762</v>
@@ -7675,25 +7675,25 @@
         <v>2317.005353606687</v>
       </c>
       <c r="S44" t="n">
-        <v>2317.005353606687</v>
+        <v>2220.480519927531</v>
       </c>
       <c r="T44" t="n">
-        <v>2102.243979692144</v>
+        <v>2005.719146012989</v>
       </c>
       <c r="U44" t="n">
-        <v>1845.319549359099</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="V44" t="n">
-        <v>1495.481994695579</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="W44" t="n">
-        <v>1111.721693830748</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="X44" t="n">
-        <v>711.0782959997007</v>
+        <v>1748.794715679943</v>
       </c>
       <c r="Y44" t="n">
-        <v>310.1416229477908</v>
+        <v>1748.794715679943</v>
       </c>
     </row>
     <row r="45">
@@ -7724,28 +7724,28 @@
         <v>46.34010707213374</v>
       </c>
       <c r="I45" t="n">
-        <v>56.71175580930699</v>
+        <v>46.34010707213374</v>
       </c>
       <c r="J45" t="n">
-        <v>333.787910029433</v>
+        <v>274.4264739674858</v>
       </c>
       <c r="K45" t="n">
-        <v>907.246735047088</v>
+        <v>363.1783442587975</v>
       </c>
       <c r="L45" t="n">
-        <v>1045.345206482666</v>
+        <v>501.276815694375</v>
       </c>
       <c r="M45" t="n">
-        <v>1214.339140573664</v>
+        <v>670.2707497853735</v>
       </c>
       <c r="N45" t="n">
-        <v>1393.641342433784</v>
+        <v>849.5729516454934</v>
       </c>
       <c r="O45" t="n">
-        <v>1548.668810551856</v>
+        <v>1004.600419763566</v>
       </c>
       <c r="P45" t="n">
-        <v>1984.029401784995</v>
+        <v>1578.059244781221</v>
       </c>
       <c r="Q45" t="n">
         <v>2041.751673158611</v>
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>845.2945943683947</v>
+        <v>370.1589912769849</v>
       </c>
       <c r="C46" t="n">
-        <v>674.2012219301112</v>
+        <v>370.1589912769849</v>
       </c>
       <c r="D46" t="n">
-        <v>514.7065772530211</v>
+        <v>282.5680243331911</v>
       </c>
       <c r="E46" t="n">
-        <v>353.7957621213405</v>
+        <v>282.5680243331911</v>
       </c>
       <c r="F46" t="n">
-        <v>189.1646362319318</v>
+        <v>282.5680243331911</v>
       </c>
       <c r="G46" t="n">
-        <v>189.1646362319318</v>
+        <v>282.5680243331911</v>
       </c>
       <c r="H46" t="n">
-        <v>46.34010707213374</v>
+        <v>139.7434951733931</v>
       </c>
       <c r="I46" t="n">
         <v>46.34010707213374</v>
       </c>
       <c r="J46" t="n">
-        <v>113.2867408723821</v>
+        <v>113.286740872382</v>
       </c>
       <c r="K46" t="n">
-        <v>354.7109984607102</v>
+        <v>354.7109984607101</v>
       </c>
       <c r="L46" t="n">
         <v>725.7742600107267</v>
@@ -7842,16 +7842,16 @@
         <v>1573.893667974185</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.893667974185</v>
+        <v>1300.007922913707</v>
       </c>
       <c r="W46" t="n">
-        <v>1496.073861513991</v>
+        <v>1020.938258422581</v>
       </c>
       <c r="X46" t="n">
-        <v>1257.729999373674</v>
+        <v>782.5943962822646</v>
       </c>
       <c r="Y46" t="n">
-        <v>1032.994300762439</v>
+        <v>557.8586976710293</v>
       </c>
     </row>
   </sheetData>
@@ -7978,10 +7978,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>82.47002078974843</v>
+        <v>73.32359133330795</v>
       </c>
       <c r="K2" t="n">
-        <v>97.91326642434689</v>
+        <v>98.28281912965761</v>
       </c>
       <c r="L2" t="n">
         <v>104.6318275192853</v>
@@ -7999,10 +7999,10 @@
         <v>93.64936328088416</v>
       </c>
       <c r="Q2" t="n">
-        <v>99.18023385559253</v>
+        <v>98.81068115028181</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>96.458572271164</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8060,7 +8060,7 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K3" t="n">
-        <v>64.97221224105589</v>
+        <v>55.82578278461539</v>
       </c>
       <c r="L3" t="n">
         <v>56.11452381084905</v>
@@ -8072,13 +8072,13 @@
         <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>57.751479</v>
+        <v>66.52835575112977</v>
       </c>
       <c r="P3" t="n">
         <v>63.40606445924423</v>
       </c>
       <c r="Q3" t="n">
-        <v>65.46949525596848</v>
+        <v>65.83904796127921</v>
       </c>
       <c r="R3" t="n">
         <v>68.1466285618459</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>51.43314568295542</v>
+        <v>60.57957513939591</v>
       </c>
       <c r="K4" t="n">
         <v>52.25036955906683</v>
@@ -8145,19 +8145,19 @@
         <v>54.62829389390151</v>
       </c>
       <c r="M4" t="n">
-        <v>65.41137195522053</v>
+        <v>65.04181924990981</v>
       </c>
       <c r="N4" t="n">
-        <v>60.85907496485993</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O4" t="n">
-        <v>56.07489807299633</v>
+        <v>65.22132752943682</v>
       </c>
       <c r="P4" t="n">
-        <v>64.92627109634527</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q4" t="n">
-        <v>70.13640241105533</v>
+        <v>70.50595511636605</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,10 +8215,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>82.47002078974843</v>
       </c>
       <c r="K5" t="n">
-        <v>97.91326642434689</v>
+        <v>98.28281912965761</v>
       </c>
       <c r="L5" t="n">
         <v>95.48539806284482</v>
@@ -8230,16 +8230,16 @@
         <v>92.91229075661933</v>
       </c>
       <c r="O5" t="n">
-        <v>93.18977562578313</v>
+        <v>101.9666523769129</v>
       </c>
       <c r="P5" t="n">
-        <v>102.7957927373246</v>
+        <v>93.64936328088416</v>
       </c>
       <c r="Q5" t="n">
         <v>99.18023385559253</v>
       </c>
       <c r="R5" t="n">
-        <v>96.458572271164</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,28 +8294,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J6" t="n">
-        <v>51.36923880000001</v>
+        <v>60.5156682564405</v>
       </c>
       <c r="K6" t="n">
-        <v>55.82578278461539</v>
+        <v>64.97221224105589</v>
       </c>
       <c r="L6" t="n">
-        <v>65.26095326728954</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
-        <v>66.34116048954718</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>62.33982285019048</v>
       </c>
       <c r="O6" t="n">
         <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>63.40606445924423</v>
+        <v>63.03651175393351</v>
       </c>
       <c r="Q6" t="n">
-        <v>65.83904796127921</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R6" t="n">
         <v>59.00019910540541</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>51.43314568295542</v>
+        <v>60.57957513939591</v>
       </c>
       <c r="K7" t="n">
-        <v>61.02724631019659</v>
+        <v>61.39679901550731</v>
       </c>
       <c r="L7" t="n">
-        <v>54.62829389390151</v>
+        <v>63.77472335034199</v>
       </c>
       <c r="M7" t="n">
         <v>56.26494249878004</v>
       </c>
       <c r="N7" t="n">
-        <v>60.85907496485993</v>
+        <v>51.71264550841944</v>
       </c>
       <c r="O7" t="n">
         <v>56.07489807299633</v>
       </c>
       <c r="P7" t="n">
-        <v>64.92627109634527</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q7" t="n">
-        <v>70.50595511636605</v>
+        <v>70.13640241105533</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8452,28 +8452,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>82.47002078974843</v>
       </c>
       <c r="K8" t="n">
         <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>104.6318275192853</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
         <v>102.4366539134859</v>
       </c>
       <c r="N8" t="n">
-        <v>101.6891675077491</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>102.3362050822236</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P8" t="n">
-        <v>93.64936328088416</v>
+        <v>102.4262400320139</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>99.18023385559253</v>
       </c>
       <c r="R8" t="n">
         <v>87.31214281472352</v>
@@ -8531,10 +8531,10 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>60.5156682564405</v>
+        <v>60.14611555112977</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>64.97221224105589</v>
       </c>
       <c r="L9" t="n">
         <v>56.11452381084905</v>
@@ -8546,16 +8546,16 @@
         <v>62.33982285019048</v>
       </c>
       <c r="O9" t="n">
-        <v>66.52835575112975</v>
+        <v>57.751479</v>
       </c>
       <c r="P9" t="n">
         <v>54.25963500280375</v>
       </c>
       <c r="Q9" t="n">
-        <v>65.83904796127921</v>
+        <v>56.69261850483872</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>68.1466285618459</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,25 +8610,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>51.43314568295542</v>
+        <v>60.21002243408518</v>
       </c>
       <c r="K10" t="n">
-        <v>61.39679901550731</v>
+        <v>52.25036955906683</v>
       </c>
       <c r="L10" t="n">
-        <v>63.77472335034199</v>
+        <v>54.62829389390151</v>
       </c>
       <c r="M10" t="n">
-        <v>56.26494249878004</v>
+        <v>65.41137195522053</v>
       </c>
       <c r="N10" t="n">
-        <v>51.71264550841944</v>
+        <v>60.85907496485993</v>
       </c>
       <c r="O10" t="n">
         <v>56.07489807299633</v>
       </c>
       <c r="P10" t="n">
-        <v>64.55671839103454</v>
+        <v>55.77984163990478</v>
       </c>
       <c r="Q10" t="n">
         <v>70.50595511636605</v>
@@ -8698,22 +8698,22 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>350.8066023534464</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>388.7465102910362</v>
+        <v>196.8357992842868</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8768,7 +8768,7 @@
         <v>9.289045568206213</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
         <v>489.602984572064</v>
@@ -8777,10 +8777,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>408.5503948754107</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>170.0428628475212</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -8789,7 +8789,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>332.4635567384541</v>
       </c>
       <c r="R12" t="n">
         <v>3.065932926440695</v>
@@ -8929,7 +8929,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K14" t="n">
-        <v>367.8269748985174</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
@@ -8938,19 +8938,19 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>371.7261377459652</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>196.8357992842867</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9002,7 +9002,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>9.289045568206213</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J15" t="n">
         <v>246.129700984478</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>461.480309311528</v>
+        <v>315.7268962390511</v>
       </c>
       <c r="Q15" t="n">
-        <v>274.7938654537322</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
         <v>88.85829947169823</v>
@@ -9163,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K17" t="n">
-        <v>271.8564018264501</v>
+        <v>454.2071525169571</v>
       </c>
       <c r="L17" t="n">
-        <v>409.0267933428845</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>157.0675085354632</v>
       </c>
       <c r="O17" t="n">
-        <v>388.7465102910362</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9239,19 +9239,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>9.289045568206213</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>413.5161464351073</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>408.5503948754107</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -9263,10 +9263,10 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>3.065932926440695</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9409,13 +9409,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>196.8357992842867</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>196.8357992842868</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9476,16 +9476,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>9.289045568206213</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>489.602984572064</v>
+        <v>315.7268962390515</v>
       </c>
       <c r="L21" t="n">
-        <v>332.463556738454</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -9500,10 +9500,10 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>3.065932926440695</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9643,13 +9643,13 @@
         <v>632.7318453389136</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>23.22062528569552</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N23" t="n">
-        <v>614.5106324876327</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>743.321953824879</v>
@@ -9658,10 +9658,10 @@
         <v>628.1510783507341</v>
       </c>
       <c r="Q23" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9716,10 +9716,10 @@
         <v>9.289045568206213</v>
       </c>
       <c r="J24" t="n">
-        <v>246.129700984478</v>
+        <v>141.8892339860649</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9728,7 +9728,7 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>822.0665413105176</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>0</v>
@@ -9737,7 +9737,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
         <v>3.065932926440695</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>632.7318453389136</v>
       </c>
       <c r="L26" t="n">
-        <v>815.2746908024792</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>566.952022464194</v>
+        <v>877.4504173780091</v>
       </c>
       <c r="N26" t="n">
         <v>853.701196452193</v>
@@ -9892,13 +9892,13 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>628.1510783507341</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>334.9802619458801</v>
       </c>
       <c r="R26" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9956,10 +9956,10 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>723.8803540323523</v>
+        <v>45.62045457497595</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9968,16 +9968,16 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>333.8394753968121</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R27" t="n">
-        <v>3.065932926440695</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10114,13 +10114,13 @@
         <v>330.076592815888</v>
       </c>
       <c r="K29" t="n">
-        <v>432.6126930524128</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L29" t="n">
         <v>815.2746908024792</v>
       </c>
       <c r="M29" t="n">
-        <v>877.4504173780091</v>
+        <v>262.8924033233747</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10132,7 +10132,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R29" t="n">
         <v>128.2784515920617</v>
@@ -10190,16 +10190,16 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>45.62045457497597</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>436.0805050440069</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10208,13 +10208,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>621.6393243851574</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>3.065932926440695</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L32" t="n">
-        <v>723.069279459444</v>
+        <v>815.2746908024792</v>
       </c>
       <c r="M32" t="n">
         <v>877.4504173780091</v>
       </c>
       <c r="N32" t="n">
-        <v>853.701196452193</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>743.321953824879</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>258.2358921214492</v>
       </c>
       <c r="Q32" t="n">
-        <v>414.4388617681339</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10424,16 +10424,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>9.289045568206213</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>299.3769950668197</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -10442,16 +10442,16 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>768.8192472281761</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>315.7268962390511</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R33" t="n">
-        <v>3.065932926440695</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10588,7 +10588,7 @@
         <v>330.076592815888</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>196.8357992842866</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10600,16 +10600,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>388.7465102910362</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>350.8066023534462</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10661,19 +10661,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>9.289045568206213</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
         <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>350.1098191331585</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>326.2033091048829</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>461.480309311528</v>
       </c>
       <c r="Q36" t="n">
-        <v>410.0708656603775</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>88.85829947169823</v>
+        <v>3.065932926440695</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,22 +10822,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>330.076592815888</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>202.247867709536</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>409.0267933428845</v>
+        <v>303.995140858413</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>376.8880543109215</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>388.7465102910362</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -10846,7 +10846,7 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>128.2784515920617</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10898,19 +10898,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>9.289045568206213</v>
+        <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>489.602984572064</v>
       </c>
       <c r="L39" t="n">
-        <v>198.1655381080572</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>408.5503948754107</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -10919,13 +10919,13 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>461.480309311528</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.1947773273649</v>
       </c>
       <c r="R39" t="n">
-        <v>3.065932926440695</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,10 +11059,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>196.8357992842866</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11074,10 +11074,10 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>388.7465102910362</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>138.1658818091385</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>414.4388617681339</v>
@@ -11138,7 +11138,7 @@
         <v>9.289045568206213</v>
       </c>
       <c r="J42" t="n">
-        <v>180.4552545335024</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>489.602984572064</v>
@@ -11150,19 +11150,19 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>398.1380031894294</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>82.73002551729698</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R42" t="n">
-        <v>3.065932926440695</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11299,19 +11299,19 @@
         <v>330.076592815888</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>222.5281507613843</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>239.5485233064555</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>371.7261377459652</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>388.7465102910362</v>
       </c>
       <c r="P44" t="n">
         <v>0</v>
@@ -11372,13 +11372,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>19.76545843403778</v>
+        <v>9.289045568206213</v>
       </c>
       <c r="J45" t="n">
-        <v>246.129700984478</v>
+        <v>196.6450673230902</v>
       </c>
       <c r="K45" t="n">
-        <v>489.602984572064</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -11393,10 +11393,10 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>321.9871438726224</v>
+        <v>461.480309311528</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
         <v>3.065932926440695</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>406.1189678678446</v>
+        <v>295.2464504214437</v>
       </c>
       <c r="C11" t="n">
         <v>406.0233447798626</v>
@@ -23266,7 +23266,7 @@
         <v>400.41929060787</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23308,7 +23308,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -23320,10 +23320,10 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W11" t="n">
-        <v>378.1696152276815</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X11" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23421,19 +23421,19 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>121.0640492612266</v>
       </c>
       <c r="E13" t="n">
-        <v>89.99620720505349</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I13" t="n">
         <v>92.46935422024676</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,19 +23545,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>156.4566568849009</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>346.3391791168841</v>
+        <v>287.3032224451547</v>
       </c>
       <c r="W14" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>396.636963852737</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>85.97954526896775</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>270.7066147711603</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -23731,10 +23731,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>406.0233447798626</v>
+        <v>291.6892592547576</v>
       </c>
       <c r="D17" t="n">
         <v>400.41929060787</v>
@@ -23743,7 +23743,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
         <v>402.9572413489716</v>
@@ -23752,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23791,13 +23791,13 @@
         <v>254.355186029715</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W17" t="n">
-        <v>300.9764621444407</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X17" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23898,19 +23898,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>91.094896306612</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S19" t="n">
         <v>171.3654368228146</v>
@@ -23955,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>134.5276420393059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23971,13 +23971,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E20" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
         <v>416.8201079258493</v>
@@ -23986,7 +23986,7 @@
         <v>402.9572413489716</v>
       </c>
       <c r="H20" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>20.57509085115342</v>
@@ -24028,16 +24028,16 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>346.3391791168841</v>
+        <v>164.417467791314</v>
       </c>
       <c r="W20" t="n">
         <v>379.9226978561831</v>
       </c>
       <c r="X20" t="n">
-        <v>320.6958109079735</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="21">
@@ -24132,22 +24132,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>104.5606348991076</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9289690666107</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>171.4682747983125</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>340.103953413388</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>340.1039534133876</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24369,10 +24369,10 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>171.3654368228146</v>
       </c>
       <c r="T25" t="n">
         <v>233.9261601361662</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>179.4552577813244</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>176.5486463642883</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24454,7 +24454,7 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>375.5994168479422</v>
       </c>
       <c r="G26" t="n">
         <v>0</v>
@@ -24499,10 +24499,10 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>254.355186029715</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>121.244230818227</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S28" t="n">
-        <v>171.3654368228146</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>16.62102805251834</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>222.4883416251229</v>
+        <v>77.63954361151815</v>
       </c>
     </row>
     <row r="29">
@@ -24682,7 +24682,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>375.5994168479423</v>
       </c>
       <c r="D29" t="n">
         <v>0</v>
@@ -24742,7 +24742,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>375.599416847942</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>169.3824387139007</v>
+        <v>102.7228390992267</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>164.8226104303953</v>
       </c>
       <c r="H31" t="n">
-        <v>0.04682786744606915</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24925,7 +24925,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>375.5994168479422</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>375.5994168479422</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25074,22 +25074,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G34" t="n">
-        <v>150.0276440145481</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>233.9261601361662</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>279.9289690666107</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>11.8140836383032</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25153,13 +25153,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>410.1968133282722</v>
@@ -25174,7 +25174,7 @@
         <v>290.5556061473074</v>
       </c>
       <c r="I35" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>95.5595853423645</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U35" t="n">
         <v>254.355186029715</v>
       </c>
       <c r="V35" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.1045547100566</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>135.7826893865397</v>
       </c>
     </row>
     <row r="36">
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>141.3962838682001</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,25 +25362,25 @@
         <v>50.46000275058582</v>
       </c>
       <c r="S37" t="n">
-        <v>171.3654368228146</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>7.083462666399981</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>88.14542282810058</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25399,19 +25399,19 @@
         <v>400.41929060787</v>
       </c>
       <c r="E38" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>353.1307133594646</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>290.5556061473074</v>
       </c>
       <c r="I38" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25444,19 +25444,19 @@
         <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>212.6137601753971</v>
       </c>
       <c r="U38" t="n">
-        <v>254.355186029715</v>
+        <v>164.6477434048251</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y38" t="n">
         <v>396.9273063213908</v>
@@ -25557,16 +25557,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>164.8226104303953</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>141.3962838682001</v>
+        <v>104.5606348991076</v>
       </c>
       <c r="I40" t="n">
         <v>92.46935422024676</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25611,7 +25611,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>171.0882649619764</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,28 +25627,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.5347018125706</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>100.4244558267621</v>
       </c>
       <c r="G41" t="n">
         <v>402.9572413489716</v>
       </c>
       <c r="H41" t="n">
-        <v>290.5556061473074</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>20.57509085115342</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,16 +25678,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>95.5595853423645</v>
       </c>
       <c r="T41" t="n">
-        <v>212.6137601753971</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>379.9226978561831</v>
@@ -25696,7 +25696,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y41" t="n">
-        <v>396.9273063213908</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>92.46935422024676</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>50.46000275058582</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,16 +25845,16 @@
         <v>279.9289690666107</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>33.67099806382114</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>2.085836084411881</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25870,19 +25870,19 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>410.1968133282722</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>402.9572413489716</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>49.96719628156038</v>
+        <v>256.0940876876927</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25915,7 +25915,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>95.5595853423645</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -25924,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="45">
@@ -26025,16 +26025,16 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>71.18464095596325</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G46" t="n">
         <v>164.8226104303953</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>92.46935422024676</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,10 +26082,10 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>199.2373594506223</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>453990.6513078531</v>
+        <v>453990.6513078532</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>453990.6513078532</v>
+        <v>453990.6513078531</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>453990.6513078531</v>
+        <v>453990.6513078532</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>678843.3071627537</v>
+        <v>678843.3071627535</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>675292.8639984012</v>
+        <v>675292.8639984013</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>675292.8639984012</v>
+        <v>675292.8639984013</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>453990.651307853</v>
+        <v>453990.6513078532</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>453990.6513078532</v>
+        <v>453990.6513078533</v>
       </c>
     </row>
     <row r="15">
@@ -26316,46 +26316,46 @@
         <v>536938.9878331586</v>
       </c>
       <c r="C2" t="n">
-        <v>536938.9878331586</v>
+        <v>536938.9878331583</v>
       </c>
       <c r="D2" t="n">
         <v>536938.9878331585</v>
       </c>
       <c r="E2" t="n">
-        <v>353145.8405220454</v>
+        <v>353145.8405220452</v>
       </c>
       <c r="F2" t="n">
-        <v>353145.8405220454</v>
+        <v>353145.8405220453</v>
       </c>
       <c r="G2" t="n">
         <v>353145.8405220454</v>
       </c>
       <c r="H2" t="n">
-        <v>353145.8405220453</v>
+        <v>353145.8405220454</v>
       </c>
       <c r="I2" t="n">
-        <v>500769.2813945703</v>
+        <v>500769.2813945701</v>
       </c>
       <c r="J2" t="n">
-        <v>498438.294310823</v>
+        <v>498438.2943108231</v>
       </c>
       <c r="K2" t="n">
-        <v>498438.2943108233</v>
+        <v>498438.2943108229</v>
       </c>
       <c r="L2" t="n">
         <v>498438.2943108229</v>
       </c>
       <c r="M2" t="n">
+        <v>353145.8405220453</v>
+      </c>
+      <c r="N2" t="n">
         <v>353145.8405220454</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>353145.8405220453</v>
       </c>
-      <c r="O2" t="n">
-        <v>353145.8405220452</v>
-      </c>
       <c r="P2" t="n">
-        <v>353145.8405220454</v>
+        <v>353145.8405220453</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3065.178878730687</v>
+        <v>3065.178878730705</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26420,7 +26420,7 @@
         <v>346403.2248855641</v>
       </c>
       <c r="C4" t="n">
-        <v>346403.2248855641</v>
+        <v>346403.2248855642</v>
       </c>
       <c r="D4" t="n">
         <v>346403.2248855641</v>
@@ -26429,13 +26429,13 @@
         <v>58523.87007092831</v>
       </c>
       <c r="F4" t="n">
-        <v>58523.87007092829</v>
+        <v>58523.8700709283</v>
       </c>
       <c r="G4" t="n">
         <v>58523.8700709283</v>
       </c>
       <c r="H4" t="n">
-        <v>58523.87007092831</v>
+        <v>58523.8700709283</v>
       </c>
       <c r="I4" t="n">
         <v>118133.1906348526</v>
@@ -26450,16 +26450,16 @@
         <v>117191.9542330712</v>
       </c>
       <c r="M4" t="n">
+        <v>58523.8700709283</v>
+      </c>
+      <c r="N4" t="n">
         <v>58523.87007092831</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
+        <v>58523.8700709283</v>
+      </c>
+      <c r="P4" t="n">
         <v>58523.87007092829</v>
-      </c>
-      <c r="O4" t="n">
-        <v>58523.87007092829</v>
-      </c>
-      <c r="P4" t="n">
-        <v>58523.8700709283</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>153286.8811579123</v>
+        <v>153285.1450695063</v>
       </c>
       <c r="C6" t="n">
-        <v>156352.0600366429</v>
+        <v>156350.3239482367</v>
       </c>
       <c r="D6" t="n">
-        <v>156352.0600366428</v>
+        <v>156350.3239482369</v>
       </c>
       <c r="E6" t="n">
-        <v>-256441.4234808723</v>
+        <v>-257000.1085005242</v>
       </c>
       <c r="F6" t="n">
-        <v>250272.8799857083</v>
+        <v>249714.1949660565</v>
       </c>
       <c r="G6" t="n">
-        <v>250272.8799857084</v>
+        <v>249714.1949660566</v>
       </c>
       <c r="H6" t="n">
-        <v>250272.8799857082</v>
+        <v>249714.1949660566</v>
       </c>
       <c r="I6" t="n">
-        <v>149033.4237603763</v>
+        <v>148922.0825009442</v>
       </c>
       <c r="J6" t="n">
-        <v>302234.871148473</v>
+        <v>302116.4662918177</v>
       </c>
       <c r="K6" t="n">
-        <v>302234.8711484732</v>
+        <v>302116.4662918174</v>
       </c>
       <c r="L6" t="n">
-        <v>302234.8711484729</v>
+        <v>302116.4662918174</v>
       </c>
       <c r="M6" t="n">
-        <v>250272.8799857084</v>
+        <v>249714.1949660565</v>
       </c>
       <c r="N6" t="n">
-        <v>250272.8799857082</v>
+        <v>249714.1949660566</v>
       </c>
       <c r="O6" t="n">
-        <v>250272.8799857081</v>
+        <v>249714.1949660565</v>
       </c>
       <c r="P6" t="n">
-        <v>250272.8799857084</v>
+        <v>249714.1949660565</v>
       </c>
     </row>
   </sheetData>
@@ -27457,25 +27457,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>138.9000023092308</v>
+        <v>130.843827243998</v>
       </c>
       <c r="C3" t="n">
         <v>132.6551205385437</v>
       </c>
       <c r="D3" t="n">
-        <v>107.6720111375687</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E3" t="n">
-        <v>110.1414583911548</v>
+        <v>119.2878878475953</v>
       </c>
       <c r="F3" t="n">
         <v>107.8702810193205</v>
       </c>
       <c r="G3" t="n">
-        <v>96.77378210236419</v>
+        <v>105.9202115588047</v>
       </c>
       <c r="H3" t="n">
-        <v>60.89331137820062</v>
+        <v>70.03974083464111</v>
       </c>
       <c r="I3" t="n">
         <v>20.54110546596223</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>106.9101097868343</v>
+        <v>97.76368033039377</v>
       </c>
       <c r="T3" t="n">
-        <v>157.7484451748619</v>
+        <v>148.6020157184214</v>
       </c>
       <c r="U3" t="n">
-        <v>195.3773027531635</v>
+        <v>186.230873296723</v>
       </c>
       <c r="V3" t="n">
         <v>211.5744117368965</v>
@@ -27536,19 +27536,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>185.8227093301039</v>
+        <v>177.7665342648712</v>
       </c>
       <c r="C4" t="n">
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>148.7532687738786</v>
       </c>
       <c r="E4" t="n">
         <v>150.1552775239232</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>153.8383851740741</v>
       </c>
       <c r="G4" t="n">
         <v>165.577887163712</v>
@@ -27593,13 +27593,13 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>270.8237365228966</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>263.0907125446405</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>267.1325383897739</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -27706,7 +27706,7 @@
         <v>119.2878878475953</v>
       </c>
       <c r="F6" t="n">
-        <v>99.81410595408768</v>
+        <v>107.8702810193205</v>
       </c>
       <c r="G6" t="n">
         <v>96.77378210236419</v>
@@ -27715,7 +27715,7 @@
         <v>60.89331137820062</v>
       </c>
       <c r="I6" t="n">
-        <v>11.39467600952174</v>
+        <v>20.54110546596223</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27748,10 +27748,10 @@
         <v>106.9101097868343</v>
       </c>
       <c r="T6" t="n">
-        <v>157.7484451748619</v>
+        <v>148.6020157184214</v>
       </c>
       <c r="U6" t="n">
-        <v>195.3773027531635</v>
+        <v>187.3211276879307</v>
       </c>
       <c r="V6" t="n">
         <v>211.5744117368965</v>
@@ -27788,10 +27788,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>156.4314577072715</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>138.9649511861574</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27821,25 +27821,25 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.27356168491386</v>
+        <v>76.36381607612157</v>
       </c>
       <c r="S7" t="n">
-        <v>175.3814209824483</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T7" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>271.9139909141043</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V7" t="n">
-        <v>271.1468876098733</v>
+        <v>262.0004581534328</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
       </c>
       <c r="X7" t="n">
-        <v>226.8139940624729</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
         <v>222.4883416251229</v>
@@ -27937,7 +27937,7 @@
         <v>132.6551205385437</v>
       </c>
       <c r="D9" t="n">
-        <v>107.6720111375687</v>
+        <v>115.7281862028015</v>
       </c>
       <c r="E9" t="n">
         <v>119.2878878475953</v>
@@ -27946,10 +27946,10 @@
         <v>107.8702810193205</v>
       </c>
       <c r="G9" t="n">
-        <v>105.9202115588047</v>
+        <v>96.77378210236419</v>
       </c>
       <c r="H9" t="n">
-        <v>70.03974083464111</v>
+        <v>61.98356576940833</v>
       </c>
       <c r="I9" t="n">
         <v>20.54110546596223</v>
@@ -27991,7 +27991,7 @@
         <v>195.3773027531635</v>
       </c>
       <c r="V9" t="n">
-        <v>202.427982280456</v>
+        <v>211.5744117368965</v>
       </c>
       <c r="W9" t="n">
         <v>211.1008365810345</v>
@@ -28031,7 +28031,7 @@
         <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
-        <v>106.0361559802766</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,19 +28061,19 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S10" t="n">
-        <v>184.5278504388888</v>
+        <v>176.4716753736561</v>
       </c>
       <c r="T10" t="n">
-        <v>237.1532516330649</v>
+        <v>228.0068221766244</v>
       </c>
       <c r="U10" t="n">
-        <v>271.9139909141043</v>
+        <v>270.8237365228966</v>
       </c>
       <c r="V10" t="n">
         <v>262.0004581534328</v>
       </c>
       <c r="W10" t="n">
-        <v>267.1325383897739</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
         <v>235.9604235189134</v>
@@ -34698,10 +34698,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="K2" t="n">
-        <v>8.776876751129763</v>
       </c>
       <c r="L2" t="n">
         <v>9.146429456440488</v>
@@ -34719,10 +34719,10 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
+        <v>8.776876751129761</v>
+      </c>
+      <c r="R2" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34780,7 +34780,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -34792,13 +34792,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="P3" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="Q3" t="n">
-        <v>8.776876751129761</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="R3" t="n">
         <v>9.146429456440488</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34865,19 +34865,19 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="N4" t="n">
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>9.146429456440488</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>8.776876751129761</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,10 +34935,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K5" t="n">
-        <v>8.776876751129763</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34950,16 +34950,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>0</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="P5" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="R5" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="M6" t="n">
-        <v>8.776876751129763</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>9.146429456440488</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="Q6" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K7" t="n">
-        <v>8.776876751129763</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>9.146429456440488</v>
+        <v>8.776876751129761</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>9.146429456440488</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>9.146429456440488</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>9.146429456440488</v>
       </c>
       <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
         <v>8.776876751129761</v>
       </c>
-      <c r="O8" t="n">
+      <c r="Q8" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
+        <v>8.776876751129763</v>
+      </c>
+      <c r="K9" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35266,16 +35266,16 @@
         <v>9.146429456440488</v>
       </c>
       <c r="O9" t="n">
-        <v>8.776876751129761</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
         <v>9.146429456440488</v>
-      </c>
-      <c r="R9" t="n">
-        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,25 +35330,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>8.776876751129763</v>
       </c>
       <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="L10" t="n">
+      <c r="N10" t="n">
         <v>9.146429456440488</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
       <c r="O10" t="n">
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>8.776876751129761</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>9.146429456440488</v>
@@ -35418,22 +35418,22 @@
         <v>170.2245450587873</v>
       </c>
       <c r="M11" t="n">
-        <v>553.1698864441968</v>
+        <v>202.3632840907504</v>
       </c>
       <c r="N11" t="n">
         <v>207.5252006557066</v>
       </c>
       <c r="O11" t="n">
-        <v>579.2513384016718</v>
+        <v>387.3406273949224</v>
       </c>
       <c r="P11" t="n">
         <v>148.4774175015223</v>
       </c>
       <c r="Q11" t="n">
-        <v>91.79332435123149</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R11" t="n">
-        <v>18.4553410793514</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>33.74520226817452</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K12" t="n">
         <v>579.2513384016718</v>
@@ -35497,10 +35497,10 @@
         <v>139.4934054904823</v>
       </c>
       <c r="M12" t="n">
-        <v>579.2513384016718</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N12" t="n">
-        <v>351.1561980597635</v>
+        <v>181.1133352122423</v>
       </c>
       <c r="O12" t="n">
         <v>156.5934021394672</v>
@@ -35509,7 +35509,7 @@
         <v>117.7710290901437</v>
       </c>
       <c r="Q12" t="n">
-        <v>58.30532461981431</v>
+        <v>390.7688813582685</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35649,7 +35649,7 @@
         <v>399.6600197486297</v>
       </c>
       <c r="K14" t="n">
-        <v>492.871160783232</v>
+        <v>125.0441858847146</v>
       </c>
       <c r="L14" t="n">
         <v>170.2245450587873</v>
@@ -35658,19 +35658,19 @@
         <v>202.3632840907504</v>
       </c>
       <c r="N14" t="n">
-        <v>579.2513384016718</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O14" t="n">
         <v>190.5048281106356</v>
       </c>
       <c r="P14" t="n">
-        <v>148.4774175015223</v>
+        <v>345.3132167858089</v>
       </c>
       <c r="Q14" t="n">
-        <v>91.79332435123149</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R14" t="n">
-        <v>18.4553410793514</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J15" t="n">
         <v>279.8749032526525</v>
@@ -35743,10 +35743,10 @@
         <v>156.5934021394672</v>
       </c>
       <c r="P15" t="n">
-        <v>579.2513384016718</v>
+        <v>433.4979253291949</v>
       </c>
       <c r="Q15" t="n">
-        <v>333.0991900735465</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R15" t="n">
         <v>85.79236654525754</v>
@@ -35883,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>69.5834269327417</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K17" t="n">
-        <v>396.9005877111647</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="L17" t="n">
-        <v>579.2513384016718</v>
+        <v>170.2245450587873</v>
       </c>
       <c r="M17" t="n">
         <v>202.3632840907504</v>
       </c>
       <c r="N17" t="n">
-        <v>207.5252006557066</v>
+        <v>364.5927091911698</v>
       </c>
       <c r="O17" t="n">
-        <v>579.2513384016718</v>
+        <v>190.5048281106356</v>
       </c>
       <c r="P17" t="n">
         <v>148.4774175015223</v>
@@ -35907,7 +35907,7 @@
         <v>91.79332435123149</v>
       </c>
       <c r="R17" t="n">
-        <v>18.4553410793514</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J18" t="n">
         <v>279.8749032526525</v>
       </c>
       <c r="K18" t="n">
-        <v>503.1645002647151</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L18" t="n">
         <v>139.4934054904823</v>
       </c>
       <c r="M18" t="n">
-        <v>579.2513384016718</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N18" t="n">
         <v>181.1133352122423</v>
@@ -35983,10 +35983,10 @@
         <v>117.7710290901437</v>
       </c>
       <c r="Q18" t="n">
-        <v>58.30532461981431</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36056,7 +36056,7 @@
         <v>399.2534764257927</v>
       </c>
       <c r="O19" t="n">
-        <v>368.9373678514651</v>
+        <v>368.9373678514653</v>
       </c>
       <c r="P19" t="n">
         <v>299.1002577677011</v>
@@ -36129,13 +36129,13 @@
         <v>170.2245450587873</v>
       </c>
       <c r="M20" t="n">
-        <v>399.199083375037</v>
+        <v>202.3632840907504</v>
       </c>
       <c r="N20" t="n">
         <v>207.5252006557066</v>
       </c>
       <c r="O20" t="n">
-        <v>190.5048281106356</v>
+        <v>387.3406273949224</v>
       </c>
       <c r="P20" t="n">
         <v>148.4774175015223</v>
@@ -36196,16 +36196,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J21" t="n">
         <v>279.8749032526525</v>
       </c>
       <c r="K21" t="n">
-        <v>579.2513384016718</v>
+        <v>405.3752500686592</v>
       </c>
       <c r="L21" t="n">
-        <v>471.9569622289363</v>
+        <v>139.4934054904823</v>
       </c>
       <c r="M21" t="n">
         <v>170.7009435262611</v>
@@ -36220,10 +36220,10 @@
         <v>117.7710290901437</v>
       </c>
       <c r="Q21" t="n">
-        <v>58.30532461981431</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36363,13 +36363,13 @@
         <v>757.7760312236283</v>
       </c>
       <c r="L23" t="n">
-        <v>170.2245450587873</v>
+        <v>193.4451703444828</v>
       </c>
       <c r="M23" t="n">
-        <v>202.3632840907504</v>
+        <v>1079.81370146876</v>
       </c>
       <c r="N23" t="n">
-        <v>822.0358331433393</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O23" t="n">
         <v>933.8267819355145</v>
@@ -36378,10 +36378,10 @@
         <v>776.6284958522564</v>
       </c>
       <c r="Q23" t="n">
-        <v>506.2321861193653</v>
+        <v>91.79332435123149</v>
       </c>
       <c r="R23" t="n">
-        <v>18.4553410793514</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,10 +36436,10 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>279.8749032526525</v>
+        <v>175.6344362542394</v>
       </c>
       <c r="K24" t="n">
-        <v>89.64835382960777</v>
+        <v>605.8844964781613</v>
       </c>
       <c r="L24" t="n">
         <v>139.4934054904823</v>
@@ -36448,7 +36448,7 @@
         <v>170.7009435262611</v>
       </c>
       <c r="N24" t="n">
-        <v>1003.17987652276</v>
+        <v>181.1133352122423</v>
       </c>
       <c r="O24" t="n">
         <v>156.5934021394672</v>
@@ -36457,7 +36457,7 @@
         <v>117.7710290901437</v>
       </c>
       <c r="Q24" t="n">
-        <v>58.30532461981431</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>399.6600197486297</v>
+        <v>69.5834269327417</v>
       </c>
       <c r="K26" t="n">
         <v>757.7760312236283</v>
       </c>
       <c r="L26" t="n">
-        <v>985.4992358612665</v>
+        <v>170.2245450587873</v>
       </c>
       <c r="M26" t="n">
-        <v>769.3153065549443</v>
+        <v>1079.81370146876</v>
       </c>
       <c r="N26" t="n">
         <v>1061.2263971079</v>
@@ -36612,13 +36612,13 @@
         <v>190.5048281106356</v>
       </c>
       <c r="P26" t="n">
-        <v>148.4774175015223</v>
+        <v>776.6284958522564</v>
       </c>
       <c r="Q26" t="n">
-        <v>91.79332435123149</v>
+        <v>426.7735862971116</v>
       </c>
       <c r="R26" t="n">
-        <v>146.7337926714131</v>
+        <v>18.4553410793514</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36676,10 +36676,10 @@
         <v>33.74520226817452</v>
       </c>
       <c r="K27" t="n">
-        <v>89.64835382960777</v>
+        <v>605.8844964781613</v>
       </c>
       <c r="L27" t="n">
-        <v>863.3737595228347</v>
+        <v>185.1138600654583</v>
       </c>
       <c r="M27" t="n">
         <v>170.7009435262611</v>
@@ -36688,16 +36688,16 @@
         <v>181.1133352122423</v>
       </c>
       <c r="O27" t="n">
-        <v>490.4328775362792</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P27" t="n">
         <v>117.7710290901437</v>
       </c>
       <c r="Q27" t="n">
-        <v>58.30532461981431</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36834,13 +36834,13 @@
         <v>399.6600197486297</v>
       </c>
       <c r="K29" t="n">
-        <v>557.6568789371274</v>
+        <v>757.7760312236283</v>
       </c>
       <c r="L29" t="n">
         <v>985.4992358612665</v>
       </c>
       <c r="M29" t="n">
-        <v>1079.81370146876</v>
+        <v>465.2556874141251</v>
       </c>
       <c r="N29" t="n">
         <v>207.5252006557066</v>
@@ -36852,7 +36852,7 @@
         <v>148.4774175015223</v>
       </c>
       <c r="Q29" t="n">
-        <v>91.79332435123149</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R29" t="n">
         <v>146.7337926714131</v>
@@ -36910,16 +36910,16 @@
         <v>10.47641286583156</v>
       </c>
       <c r="J30" t="n">
-        <v>33.74520226817452</v>
+        <v>79.36565684315049</v>
       </c>
       <c r="K30" t="n">
-        <v>89.64835382960777</v>
+        <v>605.8844964781613</v>
       </c>
       <c r="L30" t="n">
         <v>139.4934054904823</v>
       </c>
       <c r="M30" t="n">
-        <v>606.781448570268</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N30" t="n">
         <v>181.1133352122423</v>
@@ -36928,13 +36928,13 @@
         <v>156.5934021394672</v>
       </c>
       <c r="P30" t="n">
-        <v>739.4103534753011</v>
+        <v>117.7710290901437</v>
       </c>
       <c r="Q30" t="n">
-        <v>58.30532461981431</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>399.6600197486297</v>
+        <v>69.5834269327417</v>
       </c>
       <c r="K32" t="n">
-        <v>125.0441858847146</v>
+        <v>757.7760312236283</v>
       </c>
       <c r="L32" t="n">
-        <v>893.2938245182314</v>
+        <v>985.4992358612665</v>
       </c>
       <c r="M32" t="n">
         <v>1079.81370146876</v>
       </c>
       <c r="N32" t="n">
-        <v>1061.2263971079</v>
+        <v>207.5252006557066</v>
       </c>
       <c r="O32" t="n">
-        <v>190.5048281106356</v>
+        <v>933.8267819355145</v>
       </c>
       <c r="P32" t="n">
-        <v>148.4774175015223</v>
+        <v>406.7133096229715</v>
       </c>
       <c r="Q32" t="n">
-        <v>506.2321861193653</v>
+        <v>91.79332435123149</v>
       </c>
       <c r="R32" t="n">
-        <v>146.7337926714131</v>
+        <v>18.4553410793514</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J33" t="n">
-        <v>33.74520226817452</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K33" t="n">
         <v>89.64835382960777</v>
       </c>
       <c r="L33" t="n">
-        <v>438.8704005573021</v>
+        <v>139.4934054904823</v>
       </c>
       <c r="M33" t="n">
         <v>170.7009435262611</v>
@@ -37162,16 +37162,16 @@
         <v>181.1133352122423</v>
       </c>
       <c r="O33" t="n">
-        <v>925.4126493676432</v>
+        <v>156.5934021394672</v>
       </c>
       <c r="P33" t="n">
-        <v>117.7710290901437</v>
+        <v>433.4979253291949</v>
       </c>
       <c r="Q33" t="n">
-        <v>58.30532461981431</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37308,7 +37308,7 @@
         <v>399.6600197486297</v>
       </c>
       <c r="K35" t="n">
-        <v>125.0441858847146</v>
+        <v>321.8799851690013</v>
       </c>
       <c r="L35" t="n">
         <v>170.2245450587873</v>
@@ -37320,16 +37320,16 @@
         <v>207.5252006557066</v>
       </c>
       <c r="O35" t="n">
-        <v>579.2513384016718</v>
+        <v>190.5048281106356</v>
       </c>
       <c r="P35" t="n">
         <v>148.4774175015223</v>
       </c>
       <c r="Q35" t="n">
-        <v>442.5999267046777</v>
+        <v>506.2321861193653</v>
       </c>
       <c r="R35" t="n">
-        <v>18.4553410793514</v>
+        <v>146.7337926714131</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,19 +37381,19 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J36" t="n">
         <v>279.8749032526525</v>
       </c>
       <c r="K36" t="n">
-        <v>89.64835382960777</v>
+        <v>439.7581729627662</v>
       </c>
       <c r="L36" t="n">
         <v>139.4934054904823</v>
       </c>
       <c r="M36" t="n">
-        <v>496.904252631144</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N36" t="n">
         <v>181.1133352122423</v>
@@ -37402,13 +37402,13 @@
         <v>156.5934021394672</v>
       </c>
       <c r="P36" t="n">
-        <v>117.7710290901437</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="Q36" t="n">
-        <v>468.3761902801918</v>
+        <v>58.30532461981431</v>
       </c>
       <c r="R36" t="n">
-        <v>85.79236654525754</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37542,22 +37542,22 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>399.6600197486297</v>
+        <v>69.5834269327417</v>
       </c>
       <c r="K38" t="n">
-        <v>327.2920535942507</v>
+        <v>125.0441858847146</v>
       </c>
       <c r="L38" t="n">
+        <v>474.2196859172003</v>
+      </c>
+      <c r="M38" t="n">
         <v>579.2513384016718</v>
-      </c>
-      <c r="M38" t="n">
-        <v>202.3632840907504</v>
       </c>
       <c r="N38" t="n">
         <v>207.5252006557066</v>
       </c>
       <c r="O38" t="n">
-        <v>190.5048281106356</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="P38" t="n">
         <v>148.4774175015223</v>
@@ -37566,7 +37566,7 @@
         <v>91.79332435123149</v>
       </c>
       <c r="R38" t="n">
-        <v>146.7337926714131</v>
+        <v>18.4553410793514</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,19 +37618,19 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>10.47641286583156</v>
       </c>
       <c r="J39" t="n">
-        <v>33.74520226817452</v>
+        <v>279.8749032526525</v>
       </c>
       <c r="K39" t="n">
-        <v>89.64835382960777</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="L39" t="n">
-        <v>337.6589435985396</v>
+        <v>139.4934054904823</v>
       </c>
       <c r="M39" t="n">
-        <v>579.2513384016718</v>
+        <v>170.7009435262611</v>
       </c>
       <c r="N39" t="n">
         <v>181.1133352122423</v>
@@ -37639,13 +37639,13 @@
         <v>156.5934021394672</v>
       </c>
       <c r="P39" t="n">
-        <v>579.2513384016718</v>
+        <v>117.7710290901437</v>
       </c>
       <c r="Q39" t="n">
-        <v>58.30532461981431</v>
+        <v>294.5001019471792</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37779,10 +37779,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>69.5834269327417</v>
+        <v>399.6600197486297</v>
       </c>
       <c r="K41" t="n">
-        <v>125.0441858847146</v>
+        <v>321.8799851690013</v>
       </c>
       <c r="L41" t="n">
         <v>170.2245450587873</v>
@@ -37794,10 +37794,10 @@
         <v>207.5252006557066</v>
       </c>
       <c r="O41" t="n">
-        <v>579.2513384016718</v>
+        <v>190.5048281106356</v>
       </c>
       <c r="P41" t="n">
-        <v>286.6432993106607</v>
+        <v>148.4774175015223</v>
       </c>
       <c r="Q41" t="n">
         <v>506.2321861193653</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>214.2004568016769</v>
+        <v>33.74520226817452</v>
       </c>
       <c r="K42" t="n">
         <v>579.2513384016718</v>
@@ -37870,19 +37870,19 @@
         <v>170.7009435262611</v>
       </c>
       <c r="N42" t="n">
-        <v>579.2513384016718</v>
+        <v>181.1133352122423</v>
       </c>
       <c r="O42" t="n">
         <v>156.5934021394672</v>
       </c>
       <c r="P42" t="n">
-        <v>117.7710290901437</v>
+        <v>200.5010546074407</v>
       </c>
       <c r="Q42" t="n">
-        <v>58.30532461981431</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>85.79236654525754</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38019,19 +38019,19 @@
         <v>399.6600197486297</v>
       </c>
       <c r="K44" t="n">
-        <v>125.0441858847146</v>
+        <v>347.572336646099</v>
       </c>
       <c r="L44" t="n">
         <v>170.2245450587873</v>
       </c>
       <c r="M44" t="n">
-        <v>441.9118073972058</v>
+        <v>202.3632840907504</v>
       </c>
       <c r="N44" t="n">
+        <v>207.5252006557066</v>
+      </c>
+      <c r="O44" t="n">
         <v>579.2513384016718</v>
-      </c>
-      <c r="O44" t="n">
-        <v>190.5048281106356</v>
       </c>
       <c r="P44" t="n">
         <v>148.4774175015223</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>10.47641286583156</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>279.8749032526525</v>
+        <v>230.3902695912647</v>
       </c>
       <c r="K45" t="n">
-        <v>579.2513384016718</v>
+        <v>89.64835382960777</v>
       </c>
       <c r="L45" t="n">
         <v>139.4934054904823</v>
@@ -38113,10 +38113,10 @@
         <v>156.5934021394672</v>
       </c>
       <c r="P45" t="n">
-        <v>439.7581729627661</v>
+        <v>579.2513384016718</v>
       </c>
       <c r="Q45" t="n">
-        <v>58.30532461981431</v>
+        <v>468.3761902801918</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
